--- a/metadata/wcs10/WLTLGRAIN/01-WobLTliming-grain.xlsx
+++ b/metadata/wcs10/WLTLGRAIN/01-WobLTliming-grain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rothamsted.sharepoint.com/sites/e-RA/Shared Documents/General/Other long-term experiments/LT Liming expts/e-RA data/FAIRIFIED data/GRAIN/Wobgrain/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{54A7D8DC-7CEA-449A-A526-97D49D791930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EA9FDD3-EF4B-4CE4-A374-BC8B0789537D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D02D0C-9D28-46A9-96E0-7656958505EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="691" activeTab="2" xr2:uid="{5E827BFC-83F8-4F80-AE91-EA1F31D94EE5}"/>
+    <workbookView xWindow="2055" yWindow="945" windowWidth="21600" windowHeight="11385" tabRatio="691" xr2:uid="{5E827BFC-83F8-4F80-AE91-EA1F31D94EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
@@ -3648,23 +3648,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB74C1FE-803F-443F-8178-861D574533BA}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.90625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="42.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.6328125" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>80</v>
       </c>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="C2" s="20"/>
     </row>
-    <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>81</v>
       </c>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>82</v>
       </c>
@@ -3691,50 +3691,50 @@
       </c>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="23"/>
       <c r="C5" s="20"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="20"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>85</v>
       </c>
       <c r="C9" s="20"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="20"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
         <v>87</v>
       </c>
       <c r="C11" s="20"/>
     </row>
-    <row r="13" spans="1:3" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>89</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>125</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>100</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>92</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>94</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>96</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>98</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>103</v>
       </c>
@@ -3822,18 +3822,18 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
     </row>
-    <row r="23" spans="1:3" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>106</v>
       </c>
       <c r="B23" s="34"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>107</v>
       </c>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>109</v>
       </c>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="C25" s="39"/>
     </row>
-    <row r="26" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>111</v>
       </c>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="C26" s="85"/>
     </row>
-    <row r="27" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>112</v>
       </c>
@@ -3869,13 +3869,13 @@
       </c>
       <c r="C27" s="86"/>
     </row>
-    <row r="28" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>115</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>122</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>117</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>327</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>422</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>423</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>424</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>425</v>
       </c>
@@ -3963,8 +3963,8 @@
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:3" ht="36.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:3" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -4003,21 +4003,21 @@
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" customWidth="1"/>
-    <col min="5" max="5" width="45.36328125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="29.90625" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" customWidth="1"/>
-    <col min="10" max="10" width="112.08984375" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="112.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>164</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>125</v>
       </c>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="K2" s="44"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>125</v>
       </c>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>125</v>
       </c>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="K4" s="44"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>125</v>
       </c>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="K5" s="44"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>125</v>
       </c>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="K6" s="44"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>125</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>125</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>125</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>125</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>125</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>125</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>125</v>
       </c>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="K13" s="44"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>125</v>
       </c>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="K14" s="44"/>
     </row>
-    <row r="15" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>125</v>
       </c>
@@ -4433,7 +4433,7 @@
       <c r="M15" s="51"/>
       <c r="N15" s="51"/>
     </row>
-    <row r="16" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>125</v>
       </c>
@@ -4465,7 +4465,7 @@
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
     </row>
-    <row r="17" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
         <v>125</v>
       </c>
@@ -4497,7 +4497,7 @@
       <c r="M17" s="51"/>
       <c r="N17" s="51"/>
     </row>
-    <row r="18" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A18" s="44" t="s">
         <v>125</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A19" s="44" t="s">
         <v>125</v>
       </c>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
         <v>125</v>
       </c>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="K20" s="44"/>
     </row>
-    <row r="21" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A21" s="44" t="s">
         <v>125</v>
       </c>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A22" s="44" t="s">
         <v>125</v>
       </c>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="K22" s="34"/>
     </row>
-    <row r="23" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
         <v>125</v>
       </c>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="K23" s="44"/>
     </row>
-    <row r="24" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
         <v>125</v>
       </c>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="K24" s="44"/>
     </row>
-    <row r="25" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
         <v>125</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
         <v>125</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
         <v>125</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A28" s="44" t="s">
         <v>125</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A29" s="44" t="s">
         <v>125</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A30" s="44" t="s">
         <v>125</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A31" s="44" t="s">
         <v>125</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A32" s="44" t="s">
         <v>125</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A33" s="44" t="s">
         <v>125</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A34" s="44" t="s">
         <v>125</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>125</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>100</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>100</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>100</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>92</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>92</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>92</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>92</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>92</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>92</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>92</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A46" s="44" t="s">
         <v>92</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>92</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
         <v>92</v>
       </c>
@@ -5298,7 +5298,7 @@
       <c r="I48" s="44"/>
       <c r="J48" s="44"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>94</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
         <v>94</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
         <v>94</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
         <v>94</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
         <v>94</v>
       </c>
@@ -5423,7 +5423,7 @@
       <c r="I53" s="44"/>
       <c r="J53" s="44"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
         <v>94</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
         <v>94</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
         <v>94</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
         <v>94</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
         <v>94</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>94</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
         <v>94</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
         <v>94</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="I61" s="44"/>
       <c r="J61" s="44"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
         <v>96</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
         <v>96</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="44" t="s">
         <v>96</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
         <v>96</v>
       </c>
@@ -5733,7 +5733,7 @@
       <c r="I65" s="44"/>
       <c r="J65" s="44"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="s">
         <v>96</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="s">
         <v>96</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="s">
         <v>96</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="s">
         <v>96</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="s">
         <v>96</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="s">
         <v>96</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="s">
         <v>96</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="s">
         <v>96</v>
       </c>
@@ -5920,7 +5920,7 @@
       <c r="I73" s="44"/>
       <c r="J73" s="44"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="44" t="s">
         <v>98</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
         <v>98</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
         <v>98</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="s">
         <v>98</v>
       </c>
@@ -6023,7 +6023,7 @@
       <c r="I77" s="44"/>
       <c r="J77" s="44"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
         <v>98</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
         <v>98</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
         <v>98</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
         <v>98</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
         <v>98</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
         <v>98</v>
       </c>
@@ -6174,7 +6174,7 @@
       <c r="I83" s="44"/>
       <c r="J83" s="44"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
         <v>103</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
         <v>103</v>
       </c>
@@ -6295,7 +6295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F1B80-B477-44D0-BD01-A76B1F78B482}">
   <dimension ref="A1:AH97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B25" sqref="B25"/>
       <selection pane="topRight" activeCell="B25" sqref="B25"/>
@@ -6303,1171 +6303,1108 @@
       <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="4.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.453125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.453125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.54296875" style="83" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="83" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.36328125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" style="79" customWidth="1"/>
-    <col min="22" max="25" width="7.6328125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="10.453125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="8.90625" style="3" customWidth="1"/>
-    <col min="28" max="33" width="7.6328125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="9.08984375" style="2"/>
-    <col min="207" max="260" width="11.453125" customWidth="1"/>
-    <col min="261" max="261" width="9.453125" customWidth="1"/>
-    <col min="262" max="262" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="5.453125" customWidth="1"/>
-    <col min="266" max="266" width="7.453125" customWidth="1"/>
-    <col min="267" max="267" width="6.6328125" customWidth="1"/>
-    <col min="268" max="268" width="6.08984375" customWidth="1"/>
-    <col min="269" max="269" width="5.54296875" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="79" customWidth="1"/>
+    <col min="22" max="25" width="7.5703125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="3" customWidth="1"/>
+    <col min="28" max="33" width="7.5703125" style="3" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" style="2"/>
+    <col min="207" max="260" width="11.42578125" customWidth="1"/>
+    <col min="261" max="261" width="9.42578125" customWidth="1"/>
+    <col min="262" max="263" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="5.42578125" customWidth="1"/>
+    <col min="266" max="266" width="7.42578125" customWidth="1"/>
+    <col min="267" max="267" width="6.5703125" customWidth="1"/>
+    <col min="268" max="268" width="6.140625" customWidth="1"/>
+    <col min="269" max="269" width="5.5703125" customWidth="1"/>
     <col min="270" max="272" width="7" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="274" max="275" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="9.36328125" customWidth="1"/>
-    <col min="277" max="281" width="7.6328125" customWidth="1"/>
-    <col min="282" max="282" width="10.453125" customWidth="1"/>
-    <col min="283" max="283" width="8.90625" customWidth="1"/>
-    <col min="284" max="289" width="7.6328125" customWidth="1"/>
-    <col min="463" max="516" width="11.453125" customWidth="1"/>
-    <col min="517" max="517" width="9.453125" customWidth="1"/>
-    <col min="518" max="518" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="5.453125" customWidth="1"/>
-    <col min="522" max="522" width="7.453125" customWidth="1"/>
-    <col min="523" max="523" width="6.6328125" customWidth="1"/>
-    <col min="524" max="524" width="6.08984375" customWidth="1"/>
-    <col min="525" max="525" width="5.54296875" customWidth="1"/>
+    <col min="273" max="273" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="274" max="275" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="9.42578125" customWidth="1"/>
+    <col min="277" max="281" width="7.5703125" customWidth="1"/>
+    <col min="282" max="282" width="10.42578125" customWidth="1"/>
+    <col min="283" max="283" width="8.85546875" customWidth="1"/>
+    <col min="284" max="289" width="7.5703125" customWidth="1"/>
+    <col min="463" max="516" width="11.42578125" customWidth="1"/>
+    <col min="517" max="517" width="9.42578125" customWidth="1"/>
+    <col min="518" max="519" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="5.42578125" customWidth="1"/>
+    <col min="522" max="522" width="7.42578125" customWidth="1"/>
+    <col min="523" max="523" width="6.5703125" customWidth="1"/>
+    <col min="524" max="524" width="6.140625" customWidth="1"/>
+    <col min="525" max="525" width="5.5703125" customWidth="1"/>
     <col min="526" max="528" width="7" bestFit="1" customWidth="1"/>
-    <col min="529" max="529" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="530" max="531" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="532" max="532" width="9.36328125" customWidth="1"/>
-    <col min="533" max="537" width="7.6328125" customWidth="1"/>
-    <col min="538" max="538" width="10.453125" customWidth="1"/>
-    <col min="539" max="539" width="8.90625" customWidth="1"/>
-    <col min="540" max="545" width="7.6328125" customWidth="1"/>
-    <col min="719" max="772" width="11.453125" customWidth="1"/>
-    <col min="773" max="773" width="9.453125" customWidth="1"/>
-    <col min="774" max="774" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="5.453125" customWidth="1"/>
-    <col min="778" max="778" width="7.453125" customWidth="1"/>
-    <col min="779" max="779" width="6.6328125" customWidth="1"/>
-    <col min="780" max="780" width="6.08984375" customWidth="1"/>
-    <col min="781" max="781" width="5.54296875" customWidth="1"/>
+    <col min="529" max="529" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="530" max="531" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="532" max="532" width="9.42578125" customWidth="1"/>
+    <col min="533" max="537" width="7.5703125" customWidth="1"/>
+    <col min="538" max="538" width="10.42578125" customWidth="1"/>
+    <col min="539" max="539" width="8.85546875" customWidth="1"/>
+    <col min="540" max="545" width="7.5703125" customWidth="1"/>
+    <col min="719" max="772" width="11.42578125" customWidth="1"/>
+    <col min="773" max="773" width="9.42578125" customWidth="1"/>
+    <col min="774" max="775" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="5.42578125" customWidth="1"/>
+    <col min="778" max="778" width="7.42578125" customWidth="1"/>
+    <col min="779" max="779" width="6.5703125" customWidth="1"/>
+    <col min="780" max="780" width="6.140625" customWidth="1"/>
+    <col min="781" max="781" width="5.5703125" customWidth="1"/>
     <col min="782" max="784" width="7" bestFit="1" customWidth="1"/>
-    <col min="785" max="785" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="786" max="787" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="788" max="788" width="9.36328125" customWidth="1"/>
-    <col min="789" max="793" width="7.6328125" customWidth="1"/>
-    <col min="794" max="794" width="10.453125" customWidth="1"/>
-    <col min="795" max="795" width="8.90625" customWidth="1"/>
-    <col min="796" max="801" width="7.6328125" customWidth="1"/>
-    <col min="975" max="1028" width="11.453125" customWidth="1"/>
-    <col min="1029" max="1029" width="9.453125" customWidth="1"/>
-    <col min="1030" max="1030" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="5.453125" customWidth="1"/>
-    <col min="1034" max="1034" width="7.453125" customWidth="1"/>
-    <col min="1035" max="1035" width="6.6328125" customWidth="1"/>
-    <col min="1036" max="1036" width="6.08984375" customWidth="1"/>
-    <col min="1037" max="1037" width="5.54296875" customWidth="1"/>
+    <col min="785" max="785" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="786" max="787" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="788" max="788" width="9.42578125" customWidth="1"/>
+    <col min="789" max="793" width="7.5703125" customWidth="1"/>
+    <col min="794" max="794" width="10.42578125" customWidth="1"/>
+    <col min="795" max="795" width="8.85546875" customWidth="1"/>
+    <col min="796" max="801" width="7.5703125" customWidth="1"/>
+    <col min="975" max="1028" width="11.42578125" customWidth="1"/>
+    <col min="1029" max="1029" width="9.42578125" customWidth="1"/>
+    <col min="1030" max="1031" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="5.42578125" customWidth="1"/>
+    <col min="1034" max="1034" width="7.42578125" customWidth="1"/>
+    <col min="1035" max="1035" width="6.5703125" customWidth="1"/>
+    <col min="1036" max="1036" width="6.140625" customWidth="1"/>
+    <col min="1037" max="1037" width="5.5703125" customWidth="1"/>
     <col min="1038" max="1040" width="7" bestFit="1" customWidth="1"/>
-    <col min="1041" max="1041" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="1042" max="1043" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="1044" max="1044" width="9.36328125" customWidth="1"/>
-    <col min="1045" max="1049" width="7.6328125" customWidth="1"/>
-    <col min="1050" max="1050" width="10.453125" customWidth="1"/>
-    <col min="1051" max="1051" width="8.90625" customWidth="1"/>
-    <col min="1052" max="1057" width="7.6328125" customWidth="1"/>
-    <col min="1231" max="1284" width="11.453125" customWidth="1"/>
-    <col min="1285" max="1285" width="9.453125" customWidth="1"/>
-    <col min="1286" max="1286" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="5.453125" customWidth="1"/>
-    <col min="1290" max="1290" width="7.453125" customWidth="1"/>
-    <col min="1291" max="1291" width="6.6328125" customWidth="1"/>
-    <col min="1292" max="1292" width="6.08984375" customWidth="1"/>
-    <col min="1293" max="1293" width="5.54296875" customWidth="1"/>
+    <col min="1041" max="1041" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1042" max="1043" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1044" max="1044" width="9.42578125" customWidth="1"/>
+    <col min="1045" max="1049" width="7.5703125" customWidth="1"/>
+    <col min="1050" max="1050" width="10.42578125" customWidth="1"/>
+    <col min="1051" max="1051" width="8.85546875" customWidth="1"/>
+    <col min="1052" max="1057" width="7.5703125" customWidth="1"/>
+    <col min="1231" max="1284" width="11.42578125" customWidth="1"/>
+    <col min="1285" max="1285" width="9.42578125" customWidth="1"/>
+    <col min="1286" max="1287" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="5.42578125" customWidth="1"/>
+    <col min="1290" max="1290" width="7.42578125" customWidth="1"/>
+    <col min="1291" max="1291" width="6.5703125" customWidth="1"/>
+    <col min="1292" max="1292" width="6.140625" customWidth="1"/>
+    <col min="1293" max="1293" width="5.5703125" customWidth="1"/>
     <col min="1294" max="1296" width="7" bestFit="1" customWidth="1"/>
-    <col min="1297" max="1297" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="1298" max="1299" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="1300" max="1300" width="9.36328125" customWidth="1"/>
-    <col min="1301" max="1305" width="7.6328125" customWidth="1"/>
-    <col min="1306" max="1306" width="10.453125" customWidth="1"/>
-    <col min="1307" max="1307" width="8.90625" customWidth="1"/>
-    <col min="1308" max="1313" width="7.6328125" customWidth="1"/>
-    <col min="1487" max="1540" width="11.453125" customWidth="1"/>
-    <col min="1541" max="1541" width="9.453125" customWidth="1"/>
-    <col min="1542" max="1542" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="5.453125" customWidth="1"/>
-    <col min="1546" max="1546" width="7.453125" customWidth="1"/>
-    <col min="1547" max="1547" width="6.6328125" customWidth="1"/>
-    <col min="1548" max="1548" width="6.08984375" customWidth="1"/>
-    <col min="1549" max="1549" width="5.54296875" customWidth="1"/>
+    <col min="1297" max="1297" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1298" max="1299" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1300" max="1300" width="9.42578125" customWidth="1"/>
+    <col min="1301" max="1305" width="7.5703125" customWidth="1"/>
+    <col min="1306" max="1306" width="10.42578125" customWidth="1"/>
+    <col min="1307" max="1307" width="8.85546875" customWidth="1"/>
+    <col min="1308" max="1313" width="7.5703125" customWidth="1"/>
+    <col min="1487" max="1540" width="11.42578125" customWidth="1"/>
+    <col min="1541" max="1541" width="9.42578125" customWidth="1"/>
+    <col min="1542" max="1543" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="5.42578125" customWidth="1"/>
+    <col min="1546" max="1546" width="7.42578125" customWidth="1"/>
+    <col min="1547" max="1547" width="6.5703125" customWidth="1"/>
+    <col min="1548" max="1548" width="6.140625" customWidth="1"/>
+    <col min="1549" max="1549" width="5.5703125" customWidth="1"/>
     <col min="1550" max="1552" width="7" bestFit="1" customWidth="1"/>
-    <col min="1553" max="1553" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="1554" max="1555" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="1556" max="1556" width="9.36328125" customWidth="1"/>
-    <col min="1557" max="1561" width="7.6328125" customWidth="1"/>
-    <col min="1562" max="1562" width="10.453125" customWidth="1"/>
-    <col min="1563" max="1563" width="8.90625" customWidth="1"/>
-    <col min="1564" max="1569" width="7.6328125" customWidth="1"/>
-    <col min="1743" max="1796" width="11.453125" customWidth="1"/>
-    <col min="1797" max="1797" width="9.453125" customWidth="1"/>
-    <col min="1798" max="1798" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="5.453125" customWidth="1"/>
-    <col min="1802" max="1802" width="7.453125" customWidth="1"/>
-    <col min="1803" max="1803" width="6.6328125" customWidth="1"/>
-    <col min="1804" max="1804" width="6.08984375" customWidth="1"/>
-    <col min="1805" max="1805" width="5.54296875" customWidth="1"/>
+    <col min="1553" max="1553" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1554" max="1555" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1556" max="1556" width="9.42578125" customWidth="1"/>
+    <col min="1557" max="1561" width="7.5703125" customWidth="1"/>
+    <col min="1562" max="1562" width="10.42578125" customWidth="1"/>
+    <col min="1563" max="1563" width="8.85546875" customWidth="1"/>
+    <col min="1564" max="1569" width="7.5703125" customWidth="1"/>
+    <col min="1743" max="1796" width="11.42578125" customWidth="1"/>
+    <col min="1797" max="1797" width="9.42578125" customWidth="1"/>
+    <col min="1798" max="1799" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="5.42578125" customWidth="1"/>
+    <col min="1802" max="1802" width="7.42578125" customWidth="1"/>
+    <col min="1803" max="1803" width="6.5703125" customWidth="1"/>
+    <col min="1804" max="1804" width="6.140625" customWidth="1"/>
+    <col min="1805" max="1805" width="5.5703125" customWidth="1"/>
     <col min="1806" max="1808" width="7" bestFit="1" customWidth="1"/>
-    <col min="1809" max="1809" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="1810" max="1811" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="1812" max="1812" width="9.36328125" customWidth="1"/>
-    <col min="1813" max="1817" width="7.6328125" customWidth="1"/>
-    <col min="1818" max="1818" width="10.453125" customWidth="1"/>
-    <col min="1819" max="1819" width="8.90625" customWidth="1"/>
-    <col min="1820" max="1825" width="7.6328125" customWidth="1"/>
-    <col min="1999" max="2052" width="11.453125" customWidth="1"/>
-    <col min="2053" max="2053" width="9.453125" customWidth="1"/>
-    <col min="2054" max="2054" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="5.453125" customWidth="1"/>
-    <col min="2058" max="2058" width="7.453125" customWidth="1"/>
-    <col min="2059" max="2059" width="6.6328125" customWidth="1"/>
-    <col min="2060" max="2060" width="6.08984375" customWidth="1"/>
-    <col min="2061" max="2061" width="5.54296875" customWidth="1"/>
+    <col min="1809" max="1809" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1810" max="1811" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1812" max="1812" width="9.42578125" customWidth="1"/>
+    <col min="1813" max="1817" width="7.5703125" customWidth="1"/>
+    <col min="1818" max="1818" width="10.42578125" customWidth="1"/>
+    <col min="1819" max="1819" width="8.85546875" customWidth="1"/>
+    <col min="1820" max="1825" width="7.5703125" customWidth="1"/>
+    <col min="1999" max="2052" width="11.42578125" customWidth="1"/>
+    <col min="2053" max="2053" width="9.42578125" customWidth="1"/>
+    <col min="2054" max="2055" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="5.42578125" customWidth="1"/>
+    <col min="2058" max="2058" width="7.42578125" customWidth="1"/>
+    <col min="2059" max="2059" width="6.5703125" customWidth="1"/>
+    <col min="2060" max="2060" width="6.140625" customWidth="1"/>
+    <col min="2061" max="2061" width="5.5703125" customWidth="1"/>
     <col min="2062" max="2064" width="7" bestFit="1" customWidth="1"/>
-    <col min="2065" max="2065" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="2066" max="2067" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="2068" max="2068" width="9.36328125" customWidth="1"/>
-    <col min="2069" max="2073" width="7.6328125" customWidth="1"/>
-    <col min="2074" max="2074" width="10.453125" customWidth="1"/>
-    <col min="2075" max="2075" width="8.90625" customWidth="1"/>
-    <col min="2076" max="2081" width="7.6328125" customWidth="1"/>
-    <col min="2255" max="2308" width="11.453125" customWidth="1"/>
-    <col min="2309" max="2309" width="9.453125" customWidth="1"/>
-    <col min="2310" max="2310" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="5.453125" customWidth="1"/>
-    <col min="2314" max="2314" width="7.453125" customWidth="1"/>
-    <col min="2315" max="2315" width="6.6328125" customWidth="1"/>
-    <col min="2316" max="2316" width="6.08984375" customWidth="1"/>
-    <col min="2317" max="2317" width="5.54296875" customWidth="1"/>
+    <col min="2065" max="2065" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2066" max="2067" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2068" max="2068" width="9.42578125" customWidth="1"/>
+    <col min="2069" max="2073" width="7.5703125" customWidth="1"/>
+    <col min="2074" max="2074" width="10.42578125" customWidth="1"/>
+    <col min="2075" max="2075" width="8.85546875" customWidth="1"/>
+    <col min="2076" max="2081" width="7.5703125" customWidth="1"/>
+    <col min="2255" max="2308" width="11.42578125" customWidth="1"/>
+    <col min="2309" max="2309" width="9.42578125" customWidth="1"/>
+    <col min="2310" max="2311" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="5.42578125" customWidth="1"/>
+    <col min="2314" max="2314" width="7.42578125" customWidth="1"/>
+    <col min="2315" max="2315" width="6.5703125" customWidth="1"/>
+    <col min="2316" max="2316" width="6.140625" customWidth="1"/>
+    <col min="2317" max="2317" width="5.5703125" customWidth="1"/>
     <col min="2318" max="2320" width="7" bestFit="1" customWidth="1"/>
-    <col min="2321" max="2321" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="2322" max="2323" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="2324" max="2324" width="9.36328125" customWidth="1"/>
-    <col min="2325" max="2329" width="7.6328125" customWidth="1"/>
-    <col min="2330" max="2330" width="10.453125" customWidth="1"/>
-    <col min="2331" max="2331" width="8.90625" customWidth="1"/>
-    <col min="2332" max="2337" width="7.6328125" customWidth="1"/>
-    <col min="2511" max="2564" width="11.453125" customWidth="1"/>
-    <col min="2565" max="2565" width="9.453125" customWidth="1"/>
-    <col min="2566" max="2566" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="5.453125" customWidth="1"/>
-    <col min="2570" max="2570" width="7.453125" customWidth="1"/>
-    <col min="2571" max="2571" width="6.6328125" customWidth="1"/>
-    <col min="2572" max="2572" width="6.08984375" customWidth="1"/>
-    <col min="2573" max="2573" width="5.54296875" customWidth="1"/>
+    <col min="2321" max="2321" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2322" max="2323" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2324" max="2324" width="9.42578125" customWidth="1"/>
+    <col min="2325" max="2329" width="7.5703125" customWidth="1"/>
+    <col min="2330" max="2330" width="10.42578125" customWidth="1"/>
+    <col min="2331" max="2331" width="8.85546875" customWidth="1"/>
+    <col min="2332" max="2337" width="7.5703125" customWidth="1"/>
+    <col min="2511" max="2564" width="11.42578125" customWidth="1"/>
+    <col min="2565" max="2565" width="9.42578125" customWidth="1"/>
+    <col min="2566" max="2567" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="5.42578125" customWidth="1"/>
+    <col min="2570" max="2570" width="7.42578125" customWidth="1"/>
+    <col min="2571" max="2571" width="6.5703125" customWidth="1"/>
+    <col min="2572" max="2572" width="6.140625" customWidth="1"/>
+    <col min="2573" max="2573" width="5.5703125" customWidth="1"/>
     <col min="2574" max="2576" width="7" bestFit="1" customWidth="1"/>
-    <col min="2577" max="2577" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="2578" max="2579" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="2580" max="2580" width="9.36328125" customWidth="1"/>
-    <col min="2581" max="2585" width="7.6328125" customWidth="1"/>
-    <col min="2586" max="2586" width="10.453125" customWidth="1"/>
-    <col min="2587" max="2587" width="8.90625" customWidth="1"/>
-    <col min="2588" max="2593" width="7.6328125" customWidth="1"/>
-    <col min="2767" max="2820" width="11.453125" customWidth="1"/>
-    <col min="2821" max="2821" width="9.453125" customWidth="1"/>
-    <col min="2822" max="2822" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="5.453125" customWidth="1"/>
-    <col min="2826" max="2826" width="7.453125" customWidth="1"/>
-    <col min="2827" max="2827" width="6.6328125" customWidth="1"/>
-    <col min="2828" max="2828" width="6.08984375" customWidth="1"/>
-    <col min="2829" max="2829" width="5.54296875" customWidth="1"/>
+    <col min="2577" max="2577" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2578" max="2579" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2580" max="2580" width="9.42578125" customWidth="1"/>
+    <col min="2581" max="2585" width="7.5703125" customWidth="1"/>
+    <col min="2586" max="2586" width="10.42578125" customWidth="1"/>
+    <col min="2587" max="2587" width="8.85546875" customWidth="1"/>
+    <col min="2588" max="2593" width="7.5703125" customWidth="1"/>
+    <col min="2767" max="2820" width="11.42578125" customWidth="1"/>
+    <col min="2821" max="2821" width="9.42578125" customWidth="1"/>
+    <col min="2822" max="2823" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="5.42578125" customWidth="1"/>
+    <col min="2826" max="2826" width="7.42578125" customWidth="1"/>
+    <col min="2827" max="2827" width="6.5703125" customWidth="1"/>
+    <col min="2828" max="2828" width="6.140625" customWidth="1"/>
+    <col min="2829" max="2829" width="5.5703125" customWidth="1"/>
     <col min="2830" max="2832" width="7" bestFit="1" customWidth="1"/>
-    <col min="2833" max="2833" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="2834" max="2835" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="2836" max="2836" width="9.36328125" customWidth="1"/>
-    <col min="2837" max="2841" width="7.6328125" customWidth="1"/>
-    <col min="2842" max="2842" width="10.453125" customWidth="1"/>
-    <col min="2843" max="2843" width="8.90625" customWidth="1"/>
-    <col min="2844" max="2849" width="7.6328125" customWidth="1"/>
-    <col min="3023" max="3076" width="11.453125" customWidth="1"/>
-    <col min="3077" max="3077" width="9.453125" customWidth="1"/>
-    <col min="3078" max="3078" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="5.453125" customWidth="1"/>
-    <col min="3082" max="3082" width="7.453125" customWidth="1"/>
-    <col min="3083" max="3083" width="6.6328125" customWidth="1"/>
-    <col min="3084" max="3084" width="6.08984375" customWidth="1"/>
-    <col min="3085" max="3085" width="5.54296875" customWidth="1"/>
+    <col min="2833" max="2833" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2834" max="2835" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2836" max="2836" width="9.42578125" customWidth="1"/>
+    <col min="2837" max="2841" width="7.5703125" customWidth="1"/>
+    <col min="2842" max="2842" width="10.42578125" customWidth="1"/>
+    <col min="2843" max="2843" width="8.85546875" customWidth="1"/>
+    <col min="2844" max="2849" width="7.5703125" customWidth="1"/>
+    <col min="3023" max="3076" width="11.42578125" customWidth="1"/>
+    <col min="3077" max="3077" width="9.42578125" customWidth="1"/>
+    <col min="3078" max="3079" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="5.42578125" customWidth="1"/>
+    <col min="3082" max="3082" width="7.42578125" customWidth="1"/>
+    <col min="3083" max="3083" width="6.5703125" customWidth="1"/>
+    <col min="3084" max="3084" width="6.140625" customWidth="1"/>
+    <col min="3085" max="3085" width="5.5703125" customWidth="1"/>
     <col min="3086" max="3088" width="7" bestFit="1" customWidth="1"/>
-    <col min="3089" max="3089" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3090" max="3091" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="3092" max="3092" width="9.36328125" customWidth="1"/>
-    <col min="3093" max="3097" width="7.6328125" customWidth="1"/>
-    <col min="3098" max="3098" width="10.453125" customWidth="1"/>
-    <col min="3099" max="3099" width="8.90625" customWidth="1"/>
-    <col min="3100" max="3105" width="7.6328125" customWidth="1"/>
-    <col min="3279" max="3332" width="11.453125" customWidth="1"/>
-    <col min="3333" max="3333" width="9.453125" customWidth="1"/>
-    <col min="3334" max="3334" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="5.453125" customWidth="1"/>
-    <col min="3338" max="3338" width="7.453125" customWidth="1"/>
-    <col min="3339" max="3339" width="6.6328125" customWidth="1"/>
-    <col min="3340" max="3340" width="6.08984375" customWidth="1"/>
-    <col min="3341" max="3341" width="5.54296875" customWidth="1"/>
+    <col min="3089" max="3089" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3090" max="3091" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3092" max="3092" width="9.42578125" customWidth="1"/>
+    <col min="3093" max="3097" width="7.5703125" customWidth="1"/>
+    <col min="3098" max="3098" width="10.42578125" customWidth="1"/>
+    <col min="3099" max="3099" width="8.85546875" customWidth="1"/>
+    <col min="3100" max="3105" width="7.5703125" customWidth="1"/>
+    <col min="3279" max="3332" width="11.42578125" customWidth="1"/>
+    <col min="3333" max="3333" width="9.42578125" customWidth="1"/>
+    <col min="3334" max="3335" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="5.42578125" customWidth="1"/>
+    <col min="3338" max="3338" width="7.42578125" customWidth="1"/>
+    <col min="3339" max="3339" width="6.5703125" customWidth="1"/>
+    <col min="3340" max="3340" width="6.140625" customWidth="1"/>
+    <col min="3341" max="3341" width="5.5703125" customWidth="1"/>
     <col min="3342" max="3344" width="7" bestFit="1" customWidth="1"/>
-    <col min="3345" max="3345" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3346" max="3347" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="3348" max="3348" width="9.36328125" customWidth="1"/>
-    <col min="3349" max="3353" width="7.6328125" customWidth="1"/>
-    <col min="3354" max="3354" width="10.453125" customWidth="1"/>
-    <col min="3355" max="3355" width="8.90625" customWidth="1"/>
-    <col min="3356" max="3361" width="7.6328125" customWidth="1"/>
-    <col min="3535" max="3588" width="11.453125" customWidth="1"/>
-    <col min="3589" max="3589" width="9.453125" customWidth="1"/>
-    <col min="3590" max="3590" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="5.453125" customWidth="1"/>
-    <col min="3594" max="3594" width="7.453125" customWidth="1"/>
-    <col min="3595" max="3595" width="6.6328125" customWidth="1"/>
-    <col min="3596" max="3596" width="6.08984375" customWidth="1"/>
-    <col min="3597" max="3597" width="5.54296875" customWidth="1"/>
+    <col min="3345" max="3345" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3346" max="3347" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3348" max="3348" width="9.42578125" customWidth="1"/>
+    <col min="3349" max="3353" width="7.5703125" customWidth="1"/>
+    <col min="3354" max="3354" width="10.42578125" customWidth="1"/>
+    <col min="3355" max="3355" width="8.85546875" customWidth="1"/>
+    <col min="3356" max="3361" width="7.5703125" customWidth="1"/>
+    <col min="3535" max="3588" width="11.42578125" customWidth="1"/>
+    <col min="3589" max="3589" width="9.42578125" customWidth="1"/>
+    <col min="3590" max="3591" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="5.42578125" customWidth="1"/>
+    <col min="3594" max="3594" width="7.42578125" customWidth="1"/>
+    <col min="3595" max="3595" width="6.5703125" customWidth="1"/>
+    <col min="3596" max="3596" width="6.140625" customWidth="1"/>
+    <col min="3597" max="3597" width="5.5703125" customWidth="1"/>
     <col min="3598" max="3600" width="7" bestFit="1" customWidth="1"/>
-    <col min="3601" max="3601" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3602" max="3603" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="3604" max="3604" width="9.36328125" customWidth="1"/>
-    <col min="3605" max="3609" width="7.6328125" customWidth="1"/>
-    <col min="3610" max="3610" width="10.453125" customWidth="1"/>
-    <col min="3611" max="3611" width="8.90625" customWidth="1"/>
-    <col min="3612" max="3617" width="7.6328125" customWidth="1"/>
-    <col min="3791" max="3844" width="11.453125" customWidth="1"/>
-    <col min="3845" max="3845" width="9.453125" customWidth="1"/>
-    <col min="3846" max="3846" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="5.453125" customWidth="1"/>
-    <col min="3850" max="3850" width="7.453125" customWidth="1"/>
-    <col min="3851" max="3851" width="6.6328125" customWidth="1"/>
-    <col min="3852" max="3852" width="6.08984375" customWidth="1"/>
-    <col min="3853" max="3853" width="5.54296875" customWidth="1"/>
+    <col min="3601" max="3601" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3602" max="3603" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3604" max="3604" width="9.42578125" customWidth="1"/>
+    <col min="3605" max="3609" width="7.5703125" customWidth="1"/>
+    <col min="3610" max="3610" width="10.42578125" customWidth="1"/>
+    <col min="3611" max="3611" width="8.85546875" customWidth="1"/>
+    <col min="3612" max="3617" width="7.5703125" customWidth="1"/>
+    <col min="3791" max="3844" width="11.42578125" customWidth="1"/>
+    <col min="3845" max="3845" width="9.42578125" customWidth="1"/>
+    <col min="3846" max="3847" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="5.42578125" customWidth="1"/>
+    <col min="3850" max="3850" width="7.42578125" customWidth="1"/>
+    <col min="3851" max="3851" width="6.5703125" customWidth="1"/>
+    <col min="3852" max="3852" width="6.140625" customWidth="1"/>
+    <col min="3853" max="3853" width="5.5703125" customWidth="1"/>
     <col min="3854" max="3856" width="7" bestFit="1" customWidth="1"/>
-    <col min="3857" max="3857" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3858" max="3859" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="3860" max="3860" width="9.36328125" customWidth="1"/>
-    <col min="3861" max="3865" width="7.6328125" customWidth="1"/>
-    <col min="3866" max="3866" width="10.453125" customWidth="1"/>
-    <col min="3867" max="3867" width="8.90625" customWidth="1"/>
-    <col min="3868" max="3873" width="7.6328125" customWidth="1"/>
-    <col min="4047" max="4100" width="11.453125" customWidth="1"/>
-    <col min="4101" max="4101" width="9.453125" customWidth="1"/>
-    <col min="4102" max="4102" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="5.453125" customWidth="1"/>
-    <col min="4106" max="4106" width="7.453125" customWidth="1"/>
-    <col min="4107" max="4107" width="6.6328125" customWidth="1"/>
-    <col min="4108" max="4108" width="6.08984375" customWidth="1"/>
-    <col min="4109" max="4109" width="5.54296875" customWidth="1"/>
+    <col min="3857" max="3857" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3858" max="3859" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3860" max="3860" width="9.42578125" customWidth="1"/>
+    <col min="3861" max="3865" width="7.5703125" customWidth="1"/>
+    <col min="3866" max="3866" width="10.42578125" customWidth="1"/>
+    <col min="3867" max="3867" width="8.85546875" customWidth="1"/>
+    <col min="3868" max="3873" width="7.5703125" customWidth="1"/>
+    <col min="4047" max="4100" width="11.42578125" customWidth="1"/>
+    <col min="4101" max="4101" width="9.42578125" customWidth="1"/>
+    <col min="4102" max="4103" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="5.42578125" customWidth="1"/>
+    <col min="4106" max="4106" width="7.42578125" customWidth="1"/>
+    <col min="4107" max="4107" width="6.5703125" customWidth="1"/>
+    <col min="4108" max="4108" width="6.140625" customWidth="1"/>
+    <col min="4109" max="4109" width="5.5703125" customWidth="1"/>
     <col min="4110" max="4112" width="7" bestFit="1" customWidth="1"/>
-    <col min="4113" max="4113" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="4114" max="4115" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="4116" max="4116" width="9.36328125" customWidth="1"/>
-    <col min="4117" max="4121" width="7.6328125" customWidth="1"/>
-    <col min="4122" max="4122" width="10.453125" customWidth="1"/>
-    <col min="4123" max="4123" width="8.90625" customWidth="1"/>
-    <col min="4124" max="4129" width="7.6328125" customWidth="1"/>
-    <col min="4303" max="4356" width="11.453125" customWidth="1"/>
-    <col min="4357" max="4357" width="9.453125" customWidth="1"/>
-    <col min="4358" max="4358" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="5.453125" customWidth="1"/>
-    <col min="4362" max="4362" width="7.453125" customWidth="1"/>
-    <col min="4363" max="4363" width="6.6328125" customWidth="1"/>
-    <col min="4364" max="4364" width="6.08984375" customWidth="1"/>
-    <col min="4365" max="4365" width="5.54296875" customWidth="1"/>
+    <col min="4113" max="4113" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4114" max="4115" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4116" max="4116" width="9.42578125" customWidth="1"/>
+    <col min="4117" max="4121" width="7.5703125" customWidth="1"/>
+    <col min="4122" max="4122" width="10.42578125" customWidth="1"/>
+    <col min="4123" max="4123" width="8.85546875" customWidth="1"/>
+    <col min="4124" max="4129" width="7.5703125" customWidth="1"/>
+    <col min="4303" max="4356" width="11.42578125" customWidth="1"/>
+    <col min="4357" max="4357" width="9.42578125" customWidth="1"/>
+    <col min="4358" max="4359" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="5.42578125" customWidth="1"/>
+    <col min="4362" max="4362" width="7.42578125" customWidth="1"/>
+    <col min="4363" max="4363" width="6.5703125" customWidth="1"/>
+    <col min="4364" max="4364" width="6.140625" customWidth="1"/>
+    <col min="4365" max="4365" width="5.5703125" customWidth="1"/>
     <col min="4366" max="4368" width="7" bestFit="1" customWidth="1"/>
-    <col min="4369" max="4369" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="4370" max="4371" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="4372" max="4372" width="9.36328125" customWidth="1"/>
-    <col min="4373" max="4377" width="7.6328125" customWidth="1"/>
-    <col min="4378" max="4378" width="10.453125" customWidth="1"/>
-    <col min="4379" max="4379" width="8.90625" customWidth="1"/>
-    <col min="4380" max="4385" width="7.6328125" customWidth="1"/>
-    <col min="4559" max="4612" width="11.453125" customWidth="1"/>
-    <col min="4613" max="4613" width="9.453125" customWidth="1"/>
-    <col min="4614" max="4614" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="5.453125" customWidth="1"/>
-    <col min="4618" max="4618" width="7.453125" customWidth="1"/>
-    <col min="4619" max="4619" width="6.6328125" customWidth="1"/>
-    <col min="4620" max="4620" width="6.08984375" customWidth="1"/>
-    <col min="4621" max="4621" width="5.54296875" customWidth="1"/>
+    <col min="4369" max="4369" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4370" max="4371" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4372" max="4372" width="9.42578125" customWidth="1"/>
+    <col min="4373" max="4377" width="7.5703125" customWidth="1"/>
+    <col min="4378" max="4378" width="10.42578125" customWidth="1"/>
+    <col min="4379" max="4379" width="8.85546875" customWidth="1"/>
+    <col min="4380" max="4385" width="7.5703125" customWidth="1"/>
+    <col min="4559" max="4612" width="11.42578125" customWidth="1"/>
+    <col min="4613" max="4613" width="9.42578125" customWidth="1"/>
+    <col min="4614" max="4615" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="5.42578125" customWidth="1"/>
+    <col min="4618" max="4618" width="7.42578125" customWidth="1"/>
+    <col min="4619" max="4619" width="6.5703125" customWidth="1"/>
+    <col min="4620" max="4620" width="6.140625" customWidth="1"/>
+    <col min="4621" max="4621" width="5.5703125" customWidth="1"/>
     <col min="4622" max="4624" width="7" bestFit="1" customWidth="1"/>
-    <col min="4625" max="4625" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="4626" max="4627" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="4628" max="4628" width="9.36328125" customWidth="1"/>
-    <col min="4629" max="4633" width="7.6328125" customWidth="1"/>
-    <col min="4634" max="4634" width="10.453125" customWidth="1"/>
-    <col min="4635" max="4635" width="8.90625" customWidth="1"/>
-    <col min="4636" max="4641" width="7.6328125" customWidth="1"/>
-    <col min="4815" max="4868" width="11.453125" customWidth="1"/>
-    <col min="4869" max="4869" width="9.453125" customWidth="1"/>
-    <col min="4870" max="4870" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="5.453125" customWidth="1"/>
-    <col min="4874" max="4874" width="7.453125" customWidth="1"/>
-    <col min="4875" max="4875" width="6.6328125" customWidth="1"/>
-    <col min="4876" max="4876" width="6.08984375" customWidth="1"/>
-    <col min="4877" max="4877" width="5.54296875" customWidth="1"/>
+    <col min="4625" max="4625" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4626" max="4627" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4628" max="4628" width="9.42578125" customWidth="1"/>
+    <col min="4629" max="4633" width="7.5703125" customWidth="1"/>
+    <col min="4634" max="4634" width="10.42578125" customWidth="1"/>
+    <col min="4635" max="4635" width="8.85546875" customWidth="1"/>
+    <col min="4636" max="4641" width="7.5703125" customWidth="1"/>
+    <col min="4815" max="4868" width="11.42578125" customWidth="1"/>
+    <col min="4869" max="4869" width="9.42578125" customWidth="1"/>
+    <col min="4870" max="4871" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="5.42578125" customWidth="1"/>
+    <col min="4874" max="4874" width="7.42578125" customWidth="1"/>
+    <col min="4875" max="4875" width="6.5703125" customWidth="1"/>
+    <col min="4876" max="4876" width="6.140625" customWidth="1"/>
+    <col min="4877" max="4877" width="5.5703125" customWidth="1"/>
     <col min="4878" max="4880" width="7" bestFit="1" customWidth="1"/>
-    <col min="4881" max="4881" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="4882" max="4883" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="4884" max="4884" width="9.36328125" customWidth="1"/>
-    <col min="4885" max="4889" width="7.6328125" customWidth="1"/>
-    <col min="4890" max="4890" width="10.453125" customWidth="1"/>
-    <col min="4891" max="4891" width="8.90625" customWidth="1"/>
-    <col min="4892" max="4897" width="7.6328125" customWidth="1"/>
-    <col min="5071" max="5124" width="11.453125" customWidth="1"/>
-    <col min="5125" max="5125" width="9.453125" customWidth="1"/>
-    <col min="5126" max="5126" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="5.453125" customWidth="1"/>
-    <col min="5130" max="5130" width="7.453125" customWidth="1"/>
-    <col min="5131" max="5131" width="6.6328125" customWidth="1"/>
-    <col min="5132" max="5132" width="6.08984375" customWidth="1"/>
-    <col min="5133" max="5133" width="5.54296875" customWidth="1"/>
+    <col min="4881" max="4881" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4882" max="4883" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4884" max="4884" width="9.42578125" customWidth="1"/>
+    <col min="4885" max="4889" width="7.5703125" customWidth="1"/>
+    <col min="4890" max="4890" width="10.42578125" customWidth="1"/>
+    <col min="4891" max="4891" width="8.85546875" customWidth="1"/>
+    <col min="4892" max="4897" width="7.5703125" customWidth="1"/>
+    <col min="5071" max="5124" width="11.42578125" customWidth="1"/>
+    <col min="5125" max="5125" width="9.42578125" customWidth="1"/>
+    <col min="5126" max="5127" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="5.42578125" customWidth="1"/>
+    <col min="5130" max="5130" width="7.42578125" customWidth="1"/>
+    <col min="5131" max="5131" width="6.5703125" customWidth="1"/>
+    <col min="5132" max="5132" width="6.140625" customWidth="1"/>
+    <col min="5133" max="5133" width="5.5703125" customWidth="1"/>
     <col min="5134" max="5136" width="7" bestFit="1" customWidth="1"/>
-    <col min="5137" max="5137" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="5138" max="5139" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="5140" max="5140" width="9.36328125" customWidth="1"/>
-    <col min="5141" max="5145" width="7.6328125" customWidth="1"/>
-    <col min="5146" max="5146" width="10.453125" customWidth="1"/>
-    <col min="5147" max="5147" width="8.90625" customWidth="1"/>
-    <col min="5148" max="5153" width="7.6328125" customWidth="1"/>
-    <col min="5327" max="5380" width="11.453125" customWidth="1"/>
-    <col min="5381" max="5381" width="9.453125" customWidth="1"/>
-    <col min="5382" max="5382" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="5.453125" customWidth="1"/>
-    <col min="5386" max="5386" width="7.453125" customWidth="1"/>
-    <col min="5387" max="5387" width="6.6328125" customWidth="1"/>
-    <col min="5388" max="5388" width="6.08984375" customWidth="1"/>
-    <col min="5389" max="5389" width="5.54296875" customWidth="1"/>
+    <col min="5137" max="5137" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5138" max="5139" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5140" max="5140" width="9.42578125" customWidth="1"/>
+    <col min="5141" max="5145" width="7.5703125" customWidth="1"/>
+    <col min="5146" max="5146" width="10.42578125" customWidth="1"/>
+    <col min="5147" max="5147" width="8.85546875" customWidth="1"/>
+    <col min="5148" max="5153" width="7.5703125" customWidth="1"/>
+    <col min="5327" max="5380" width="11.42578125" customWidth="1"/>
+    <col min="5381" max="5381" width="9.42578125" customWidth="1"/>
+    <col min="5382" max="5383" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="5.42578125" customWidth="1"/>
+    <col min="5386" max="5386" width="7.42578125" customWidth="1"/>
+    <col min="5387" max="5387" width="6.5703125" customWidth="1"/>
+    <col min="5388" max="5388" width="6.140625" customWidth="1"/>
+    <col min="5389" max="5389" width="5.5703125" customWidth="1"/>
     <col min="5390" max="5392" width="7" bestFit="1" customWidth="1"/>
-    <col min="5393" max="5393" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="5394" max="5395" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="5396" max="5396" width="9.36328125" customWidth="1"/>
-    <col min="5397" max="5401" width="7.6328125" customWidth="1"/>
-    <col min="5402" max="5402" width="10.453125" customWidth="1"/>
-    <col min="5403" max="5403" width="8.90625" customWidth="1"/>
-    <col min="5404" max="5409" width="7.6328125" customWidth="1"/>
-    <col min="5583" max="5636" width="11.453125" customWidth="1"/>
-    <col min="5637" max="5637" width="9.453125" customWidth="1"/>
-    <col min="5638" max="5638" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="5.453125" customWidth="1"/>
-    <col min="5642" max="5642" width="7.453125" customWidth="1"/>
-    <col min="5643" max="5643" width="6.6328125" customWidth="1"/>
-    <col min="5644" max="5644" width="6.08984375" customWidth="1"/>
-    <col min="5645" max="5645" width="5.54296875" customWidth="1"/>
+    <col min="5393" max="5393" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5394" max="5395" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5396" max="5396" width="9.42578125" customWidth="1"/>
+    <col min="5397" max="5401" width="7.5703125" customWidth="1"/>
+    <col min="5402" max="5402" width="10.42578125" customWidth="1"/>
+    <col min="5403" max="5403" width="8.85546875" customWidth="1"/>
+    <col min="5404" max="5409" width="7.5703125" customWidth="1"/>
+    <col min="5583" max="5636" width="11.42578125" customWidth="1"/>
+    <col min="5637" max="5637" width="9.42578125" customWidth="1"/>
+    <col min="5638" max="5639" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="5.42578125" customWidth="1"/>
+    <col min="5642" max="5642" width="7.42578125" customWidth="1"/>
+    <col min="5643" max="5643" width="6.5703125" customWidth="1"/>
+    <col min="5644" max="5644" width="6.140625" customWidth="1"/>
+    <col min="5645" max="5645" width="5.5703125" customWidth="1"/>
     <col min="5646" max="5648" width="7" bestFit="1" customWidth="1"/>
-    <col min="5649" max="5649" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="5650" max="5651" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="5652" max="5652" width="9.36328125" customWidth="1"/>
-    <col min="5653" max="5657" width="7.6328125" customWidth="1"/>
-    <col min="5658" max="5658" width="10.453125" customWidth="1"/>
-    <col min="5659" max="5659" width="8.90625" customWidth="1"/>
-    <col min="5660" max="5665" width="7.6328125" customWidth="1"/>
-    <col min="5839" max="5892" width="11.453125" customWidth="1"/>
-    <col min="5893" max="5893" width="9.453125" customWidth="1"/>
-    <col min="5894" max="5894" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="5.453125" customWidth="1"/>
-    <col min="5898" max="5898" width="7.453125" customWidth="1"/>
-    <col min="5899" max="5899" width="6.6328125" customWidth="1"/>
-    <col min="5900" max="5900" width="6.08984375" customWidth="1"/>
-    <col min="5901" max="5901" width="5.54296875" customWidth="1"/>
+    <col min="5649" max="5649" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5650" max="5651" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5652" max="5652" width="9.42578125" customWidth="1"/>
+    <col min="5653" max="5657" width="7.5703125" customWidth="1"/>
+    <col min="5658" max="5658" width="10.42578125" customWidth="1"/>
+    <col min="5659" max="5659" width="8.85546875" customWidth="1"/>
+    <col min="5660" max="5665" width="7.5703125" customWidth="1"/>
+    <col min="5839" max="5892" width="11.42578125" customWidth="1"/>
+    <col min="5893" max="5893" width="9.42578125" customWidth="1"/>
+    <col min="5894" max="5895" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="5.42578125" customWidth="1"/>
+    <col min="5898" max="5898" width="7.42578125" customWidth="1"/>
+    <col min="5899" max="5899" width="6.5703125" customWidth="1"/>
+    <col min="5900" max="5900" width="6.140625" customWidth="1"/>
+    <col min="5901" max="5901" width="5.5703125" customWidth="1"/>
     <col min="5902" max="5904" width="7" bestFit="1" customWidth="1"/>
-    <col min="5905" max="5905" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="5906" max="5907" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="5908" max="5908" width="9.36328125" customWidth="1"/>
-    <col min="5909" max="5913" width="7.6328125" customWidth="1"/>
-    <col min="5914" max="5914" width="10.453125" customWidth="1"/>
-    <col min="5915" max="5915" width="8.90625" customWidth="1"/>
-    <col min="5916" max="5921" width="7.6328125" customWidth="1"/>
-    <col min="6095" max="6148" width="11.453125" customWidth="1"/>
-    <col min="6149" max="6149" width="9.453125" customWidth="1"/>
-    <col min="6150" max="6150" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="5.453125" customWidth="1"/>
-    <col min="6154" max="6154" width="7.453125" customWidth="1"/>
-    <col min="6155" max="6155" width="6.6328125" customWidth="1"/>
-    <col min="6156" max="6156" width="6.08984375" customWidth="1"/>
-    <col min="6157" max="6157" width="5.54296875" customWidth="1"/>
+    <col min="5905" max="5905" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5906" max="5907" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5908" max="5908" width="9.42578125" customWidth="1"/>
+    <col min="5909" max="5913" width="7.5703125" customWidth="1"/>
+    <col min="5914" max="5914" width="10.42578125" customWidth="1"/>
+    <col min="5915" max="5915" width="8.85546875" customWidth="1"/>
+    <col min="5916" max="5921" width="7.5703125" customWidth="1"/>
+    <col min="6095" max="6148" width="11.42578125" customWidth="1"/>
+    <col min="6149" max="6149" width="9.42578125" customWidth="1"/>
+    <col min="6150" max="6151" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="5.42578125" customWidth="1"/>
+    <col min="6154" max="6154" width="7.42578125" customWidth="1"/>
+    <col min="6155" max="6155" width="6.5703125" customWidth="1"/>
+    <col min="6156" max="6156" width="6.140625" customWidth="1"/>
+    <col min="6157" max="6157" width="5.5703125" customWidth="1"/>
     <col min="6158" max="6160" width="7" bestFit="1" customWidth="1"/>
-    <col min="6161" max="6161" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="6162" max="6163" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="6164" max="6164" width="9.36328125" customWidth="1"/>
-    <col min="6165" max="6169" width="7.6328125" customWidth="1"/>
-    <col min="6170" max="6170" width="10.453125" customWidth="1"/>
-    <col min="6171" max="6171" width="8.90625" customWidth="1"/>
-    <col min="6172" max="6177" width="7.6328125" customWidth="1"/>
-    <col min="6351" max="6404" width="11.453125" customWidth="1"/>
-    <col min="6405" max="6405" width="9.453125" customWidth="1"/>
-    <col min="6406" max="6406" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="5.453125" customWidth="1"/>
-    <col min="6410" max="6410" width="7.453125" customWidth="1"/>
-    <col min="6411" max="6411" width="6.6328125" customWidth="1"/>
-    <col min="6412" max="6412" width="6.08984375" customWidth="1"/>
-    <col min="6413" max="6413" width="5.54296875" customWidth="1"/>
+    <col min="6161" max="6161" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6162" max="6163" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6164" max="6164" width="9.42578125" customWidth="1"/>
+    <col min="6165" max="6169" width="7.5703125" customWidth="1"/>
+    <col min="6170" max="6170" width="10.42578125" customWidth="1"/>
+    <col min="6171" max="6171" width="8.85546875" customWidth="1"/>
+    <col min="6172" max="6177" width="7.5703125" customWidth="1"/>
+    <col min="6351" max="6404" width="11.42578125" customWidth="1"/>
+    <col min="6405" max="6405" width="9.42578125" customWidth="1"/>
+    <col min="6406" max="6407" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="5.42578125" customWidth="1"/>
+    <col min="6410" max="6410" width="7.42578125" customWidth="1"/>
+    <col min="6411" max="6411" width="6.5703125" customWidth="1"/>
+    <col min="6412" max="6412" width="6.140625" customWidth="1"/>
+    <col min="6413" max="6413" width="5.5703125" customWidth="1"/>
     <col min="6414" max="6416" width="7" bestFit="1" customWidth="1"/>
-    <col min="6417" max="6417" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="6418" max="6419" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="6420" max="6420" width="9.36328125" customWidth="1"/>
-    <col min="6421" max="6425" width="7.6328125" customWidth="1"/>
-    <col min="6426" max="6426" width="10.453125" customWidth="1"/>
-    <col min="6427" max="6427" width="8.90625" customWidth="1"/>
-    <col min="6428" max="6433" width="7.6328125" customWidth="1"/>
-    <col min="6607" max="6660" width="11.453125" customWidth="1"/>
-    <col min="6661" max="6661" width="9.453125" customWidth="1"/>
-    <col min="6662" max="6662" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="5.453125" customWidth="1"/>
-    <col min="6666" max="6666" width="7.453125" customWidth="1"/>
-    <col min="6667" max="6667" width="6.6328125" customWidth="1"/>
-    <col min="6668" max="6668" width="6.08984375" customWidth="1"/>
-    <col min="6669" max="6669" width="5.54296875" customWidth="1"/>
+    <col min="6417" max="6417" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6418" max="6419" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6420" max="6420" width="9.42578125" customWidth="1"/>
+    <col min="6421" max="6425" width="7.5703125" customWidth="1"/>
+    <col min="6426" max="6426" width="10.42578125" customWidth="1"/>
+    <col min="6427" max="6427" width="8.85546875" customWidth="1"/>
+    <col min="6428" max="6433" width="7.5703125" customWidth="1"/>
+    <col min="6607" max="6660" width="11.42578125" customWidth="1"/>
+    <col min="6661" max="6661" width="9.42578125" customWidth="1"/>
+    <col min="6662" max="6663" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="5.42578125" customWidth="1"/>
+    <col min="6666" max="6666" width="7.42578125" customWidth="1"/>
+    <col min="6667" max="6667" width="6.5703125" customWidth="1"/>
+    <col min="6668" max="6668" width="6.140625" customWidth="1"/>
+    <col min="6669" max="6669" width="5.5703125" customWidth="1"/>
     <col min="6670" max="6672" width="7" bestFit="1" customWidth="1"/>
-    <col min="6673" max="6673" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="6674" max="6675" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="6676" max="6676" width="9.36328125" customWidth="1"/>
-    <col min="6677" max="6681" width="7.6328125" customWidth="1"/>
-    <col min="6682" max="6682" width="10.453125" customWidth="1"/>
-    <col min="6683" max="6683" width="8.90625" customWidth="1"/>
-    <col min="6684" max="6689" width="7.6328125" customWidth="1"/>
-    <col min="6863" max="6916" width="11.453125" customWidth="1"/>
-    <col min="6917" max="6917" width="9.453125" customWidth="1"/>
-    <col min="6918" max="6918" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="5.453125" customWidth="1"/>
-    <col min="6922" max="6922" width="7.453125" customWidth="1"/>
-    <col min="6923" max="6923" width="6.6328125" customWidth="1"/>
-    <col min="6924" max="6924" width="6.08984375" customWidth="1"/>
-    <col min="6925" max="6925" width="5.54296875" customWidth="1"/>
+    <col min="6673" max="6673" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6674" max="6675" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6676" max="6676" width="9.42578125" customWidth="1"/>
+    <col min="6677" max="6681" width="7.5703125" customWidth="1"/>
+    <col min="6682" max="6682" width="10.42578125" customWidth="1"/>
+    <col min="6683" max="6683" width="8.85546875" customWidth="1"/>
+    <col min="6684" max="6689" width="7.5703125" customWidth="1"/>
+    <col min="6863" max="6916" width="11.42578125" customWidth="1"/>
+    <col min="6917" max="6917" width="9.42578125" customWidth="1"/>
+    <col min="6918" max="6919" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="5.42578125" customWidth="1"/>
+    <col min="6922" max="6922" width="7.42578125" customWidth="1"/>
+    <col min="6923" max="6923" width="6.5703125" customWidth="1"/>
+    <col min="6924" max="6924" width="6.140625" customWidth="1"/>
+    <col min="6925" max="6925" width="5.5703125" customWidth="1"/>
     <col min="6926" max="6928" width="7" bestFit="1" customWidth="1"/>
-    <col min="6929" max="6929" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="6930" max="6931" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="6932" max="6932" width="9.36328125" customWidth="1"/>
-    <col min="6933" max="6937" width="7.6328125" customWidth="1"/>
-    <col min="6938" max="6938" width="10.453125" customWidth="1"/>
-    <col min="6939" max="6939" width="8.90625" customWidth="1"/>
-    <col min="6940" max="6945" width="7.6328125" customWidth="1"/>
-    <col min="7119" max="7172" width="11.453125" customWidth="1"/>
-    <col min="7173" max="7173" width="9.453125" customWidth="1"/>
-    <col min="7174" max="7174" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="5.453125" customWidth="1"/>
-    <col min="7178" max="7178" width="7.453125" customWidth="1"/>
-    <col min="7179" max="7179" width="6.6328125" customWidth="1"/>
-    <col min="7180" max="7180" width="6.08984375" customWidth="1"/>
-    <col min="7181" max="7181" width="5.54296875" customWidth="1"/>
+    <col min="6929" max="6929" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6930" max="6931" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6932" max="6932" width="9.42578125" customWidth="1"/>
+    <col min="6933" max="6937" width="7.5703125" customWidth="1"/>
+    <col min="6938" max="6938" width="10.42578125" customWidth="1"/>
+    <col min="6939" max="6939" width="8.85546875" customWidth="1"/>
+    <col min="6940" max="6945" width="7.5703125" customWidth="1"/>
+    <col min="7119" max="7172" width="11.42578125" customWidth="1"/>
+    <col min="7173" max="7173" width="9.42578125" customWidth="1"/>
+    <col min="7174" max="7175" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="5.42578125" customWidth="1"/>
+    <col min="7178" max="7178" width="7.42578125" customWidth="1"/>
+    <col min="7179" max="7179" width="6.5703125" customWidth="1"/>
+    <col min="7180" max="7180" width="6.140625" customWidth="1"/>
+    <col min="7181" max="7181" width="5.5703125" customWidth="1"/>
     <col min="7182" max="7184" width="7" bestFit="1" customWidth="1"/>
-    <col min="7185" max="7185" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="7186" max="7187" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="7188" max="7188" width="9.36328125" customWidth="1"/>
-    <col min="7189" max="7193" width="7.6328125" customWidth="1"/>
-    <col min="7194" max="7194" width="10.453125" customWidth="1"/>
-    <col min="7195" max="7195" width="8.90625" customWidth="1"/>
-    <col min="7196" max="7201" width="7.6328125" customWidth="1"/>
-    <col min="7375" max="7428" width="11.453125" customWidth="1"/>
-    <col min="7429" max="7429" width="9.453125" customWidth="1"/>
-    <col min="7430" max="7430" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="5.453125" customWidth="1"/>
-    <col min="7434" max="7434" width="7.453125" customWidth="1"/>
-    <col min="7435" max="7435" width="6.6328125" customWidth="1"/>
-    <col min="7436" max="7436" width="6.08984375" customWidth="1"/>
-    <col min="7437" max="7437" width="5.54296875" customWidth="1"/>
+    <col min="7185" max="7185" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7186" max="7187" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7188" max="7188" width="9.42578125" customWidth="1"/>
+    <col min="7189" max="7193" width="7.5703125" customWidth="1"/>
+    <col min="7194" max="7194" width="10.42578125" customWidth="1"/>
+    <col min="7195" max="7195" width="8.85546875" customWidth="1"/>
+    <col min="7196" max="7201" width="7.5703125" customWidth="1"/>
+    <col min="7375" max="7428" width="11.42578125" customWidth="1"/>
+    <col min="7429" max="7429" width="9.42578125" customWidth="1"/>
+    <col min="7430" max="7431" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="5.42578125" customWidth="1"/>
+    <col min="7434" max="7434" width="7.42578125" customWidth="1"/>
+    <col min="7435" max="7435" width="6.5703125" customWidth="1"/>
+    <col min="7436" max="7436" width="6.140625" customWidth="1"/>
+    <col min="7437" max="7437" width="5.5703125" customWidth="1"/>
     <col min="7438" max="7440" width="7" bestFit="1" customWidth="1"/>
-    <col min="7441" max="7441" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="7442" max="7443" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="7444" max="7444" width="9.36328125" customWidth="1"/>
-    <col min="7445" max="7449" width="7.6328125" customWidth="1"/>
-    <col min="7450" max="7450" width="10.453125" customWidth="1"/>
-    <col min="7451" max="7451" width="8.90625" customWidth="1"/>
-    <col min="7452" max="7457" width="7.6328125" customWidth="1"/>
-    <col min="7631" max="7684" width="11.453125" customWidth="1"/>
-    <col min="7685" max="7685" width="9.453125" customWidth="1"/>
-    <col min="7686" max="7686" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="5.453125" customWidth="1"/>
-    <col min="7690" max="7690" width="7.453125" customWidth="1"/>
-    <col min="7691" max="7691" width="6.6328125" customWidth="1"/>
-    <col min="7692" max="7692" width="6.08984375" customWidth="1"/>
-    <col min="7693" max="7693" width="5.54296875" customWidth="1"/>
+    <col min="7441" max="7441" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7442" max="7443" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7444" max="7444" width="9.42578125" customWidth="1"/>
+    <col min="7445" max="7449" width="7.5703125" customWidth="1"/>
+    <col min="7450" max="7450" width="10.42578125" customWidth="1"/>
+    <col min="7451" max="7451" width="8.85546875" customWidth="1"/>
+    <col min="7452" max="7457" width="7.5703125" customWidth="1"/>
+    <col min="7631" max="7684" width="11.42578125" customWidth="1"/>
+    <col min="7685" max="7685" width="9.42578125" customWidth="1"/>
+    <col min="7686" max="7687" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="5.42578125" customWidth="1"/>
+    <col min="7690" max="7690" width="7.42578125" customWidth="1"/>
+    <col min="7691" max="7691" width="6.5703125" customWidth="1"/>
+    <col min="7692" max="7692" width="6.140625" customWidth="1"/>
+    <col min="7693" max="7693" width="5.5703125" customWidth="1"/>
     <col min="7694" max="7696" width="7" bestFit="1" customWidth="1"/>
-    <col min="7697" max="7697" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="7698" max="7699" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="7700" max="7700" width="9.36328125" customWidth="1"/>
-    <col min="7701" max="7705" width="7.6328125" customWidth="1"/>
-    <col min="7706" max="7706" width="10.453125" customWidth="1"/>
-    <col min="7707" max="7707" width="8.90625" customWidth="1"/>
-    <col min="7708" max="7713" width="7.6328125" customWidth="1"/>
-    <col min="7887" max="7940" width="11.453125" customWidth="1"/>
-    <col min="7941" max="7941" width="9.453125" customWidth="1"/>
-    <col min="7942" max="7942" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="5.453125" customWidth="1"/>
-    <col min="7946" max="7946" width="7.453125" customWidth="1"/>
-    <col min="7947" max="7947" width="6.6328125" customWidth="1"/>
-    <col min="7948" max="7948" width="6.08984375" customWidth="1"/>
-    <col min="7949" max="7949" width="5.54296875" customWidth="1"/>
+    <col min="7697" max="7697" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7698" max="7699" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7700" max="7700" width="9.42578125" customWidth="1"/>
+    <col min="7701" max="7705" width="7.5703125" customWidth="1"/>
+    <col min="7706" max="7706" width="10.42578125" customWidth="1"/>
+    <col min="7707" max="7707" width="8.85546875" customWidth="1"/>
+    <col min="7708" max="7713" width="7.5703125" customWidth="1"/>
+    <col min="7887" max="7940" width="11.42578125" customWidth="1"/>
+    <col min="7941" max="7941" width="9.42578125" customWidth="1"/>
+    <col min="7942" max="7943" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="5.42578125" customWidth="1"/>
+    <col min="7946" max="7946" width="7.42578125" customWidth="1"/>
+    <col min="7947" max="7947" width="6.5703125" customWidth="1"/>
+    <col min="7948" max="7948" width="6.140625" customWidth="1"/>
+    <col min="7949" max="7949" width="5.5703125" customWidth="1"/>
     <col min="7950" max="7952" width="7" bestFit="1" customWidth="1"/>
-    <col min="7953" max="7953" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="7954" max="7955" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="7956" max="7956" width="9.36328125" customWidth="1"/>
-    <col min="7957" max="7961" width="7.6328125" customWidth="1"/>
-    <col min="7962" max="7962" width="10.453125" customWidth="1"/>
-    <col min="7963" max="7963" width="8.90625" customWidth="1"/>
-    <col min="7964" max="7969" width="7.6328125" customWidth="1"/>
-    <col min="8143" max="8196" width="11.453125" customWidth="1"/>
-    <col min="8197" max="8197" width="9.453125" customWidth="1"/>
-    <col min="8198" max="8198" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="5.453125" customWidth="1"/>
-    <col min="8202" max="8202" width="7.453125" customWidth="1"/>
-    <col min="8203" max="8203" width="6.6328125" customWidth="1"/>
-    <col min="8204" max="8204" width="6.08984375" customWidth="1"/>
-    <col min="8205" max="8205" width="5.54296875" customWidth="1"/>
+    <col min="7953" max="7953" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7954" max="7955" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7956" max="7956" width="9.42578125" customWidth="1"/>
+    <col min="7957" max="7961" width="7.5703125" customWidth="1"/>
+    <col min="7962" max="7962" width="10.42578125" customWidth="1"/>
+    <col min="7963" max="7963" width="8.85546875" customWidth="1"/>
+    <col min="7964" max="7969" width="7.5703125" customWidth="1"/>
+    <col min="8143" max="8196" width="11.42578125" customWidth="1"/>
+    <col min="8197" max="8197" width="9.42578125" customWidth="1"/>
+    <col min="8198" max="8199" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="5.42578125" customWidth="1"/>
+    <col min="8202" max="8202" width="7.42578125" customWidth="1"/>
+    <col min="8203" max="8203" width="6.5703125" customWidth="1"/>
+    <col min="8204" max="8204" width="6.140625" customWidth="1"/>
+    <col min="8205" max="8205" width="5.5703125" customWidth="1"/>
     <col min="8206" max="8208" width="7" bestFit="1" customWidth="1"/>
-    <col min="8209" max="8209" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="8210" max="8211" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="8212" max="8212" width="9.36328125" customWidth="1"/>
-    <col min="8213" max="8217" width="7.6328125" customWidth="1"/>
-    <col min="8218" max="8218" width="10.453125" customWidth="1"/>
-    <col min="8219" max="8219" width="8.90625" customWidth="1"/>
-    <col min="8220" max="8225" width="7.6328125" customWidth="1"/>
-    <col min="8399" max="8452" width="11.453125" customWidth="1"/>
-    <col min="8453" max="8453" width="9.453125" customWidth="1"/>
-    <col min="8454" max="8454" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="5.453125" customWidth="1"/>
-    <col min="8458" max="8458" width="7.453125" customWidth="1"/>
-    <col min="8459" max="8459" width="6.6328125" customWidth="1"/>
-    <col min="8460" max="8460" width="6.08984375" customWidth="1"/>
-    <col min="8461" max="8461" width="5.54296875" customWidth="1"/>
+    <col min="8209" max="8209" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8210" max="8211" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8212" max="8212" width="9.42578125" customWidth="1"/>
+    <col min="8213" max="8217" width="7.5703125" customWidth="1"/>
+    <col min="8218" max="8218" width="10.42578125" customWidth="1"/>
+    <col min="8219" max="8219" width="8.85546875" customWidth="1"/>
+    <col min="8220" max="8225" width="7.5703125" customWidth="1"/>
+    <col min="8399" max="8452" width="11.42578125" customWidth="1"/>
+    <col min="8453" max="8453" width="9.42578125" customWidth="1"/>
+    <col min="8454" max="8455" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="5.42578125" customWidth="1"/>
+    <col min="8458" max="8458" width="7.42578125" customWidth="1"/>
+    <col min="8459" max="8459" width="6.5703125" customWidth="1"/>
+    <col min="8460" max="8460" width="6.140625" customWidth="1"/>
+    <col min="8461" max="8461" width="5.5703125" customWidth="1"/>
     <col min="8462" max="8464" width="7" bestFit="1" customWidth="1"/>
-    <col min="8465" max="8465" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="8466" max="8467" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="8468" max="8468" width="9.36328125" customWidth="1"/>
-    <col min="8469" max="8473" width="7.6328125" customWidth="1"/>
-    <col min="8474" max="8474" width="10.453125" customWidth="1"/>
-    <col min="8475" max="8475" width="8.90625" customWidth="1"/>
-    <col min="8476" max="8481" width="7.6328125" customWidth="1"/>
-    <col min="8655" max="8708" width="11.453125" customWidth="1"/>
-    <col min="8709" max="8709" width="9.453125" customWidth="1"/>
-    <col min="8710" max="8710" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="5.453125" customWidth="1"/>
-    <col min="8714" max="8714" width="7.453125" customWidth="1"/>
-    <col min="8715" max="8715" width="6.6328125" customWidth="1"/>
-    <col min="8716" max="8716" width="6.08984375" customWidth="1"/>
-    <col min="8717" max="8717" width="5.54296875" customWidth="1"/>
+    <col min="8465" max="8465" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8466" max="8467" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8468" max="8468" width="9.42578125" customWidth="1"/>
+    <col min="8469" max="8473" width="7.5703125" customWidth="1"/>
+    <col min="8474" max="8474" width="10.42578125" customWidth="1"/>
+    <col min="8475" max="8475" width="8.85546875" customWidth="1"/>
+    <col min="8476" max="8481" width="7.5703125" customWidth="1"/>
+    <col min="8655" max="8708" width="11.42578125" customWidth="1"/>
+    <col min="8709" max="8709" width="9.42578125" customWidth="1"/>
+    <col min="8710" max="8711" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="5.42578125" customWidth="1"/>
+    <col min="8714" max="8714" width="7.42578125" customWidth="1"/>
+    <col min="8715" max="8715" width="6.5703125" customWidth="1"/>
+    <col min="8716" max="8716" width="6.140625" customWidth="1"/>
+    <col min="8717" max="8717" width="5.5703125" customWidth="1"/>
     <col min="8718" max="8720" width="7" bestFit="1" customWidth="1"/>
-    <col min="8721" max="8721" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="8722" max="8723" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="8724" max="8724" width="9.36328125" customWidth="1"/>
-    <col min="8725" max="8729" width="7.6328125" customWidth="1"/>
-    <col min="8730" max="8730" width="10.453125" customWidth="1"/>
-    <col min="8731" max="8731" width="8.90625" customWidth="1"/>
-    <col min="8732" max="8737" width="7.6328125" customWidth="1"/>
-    <col min="8911" max="8964" width="11.453125" customWidth="1"/>
-    <col min="8965" max="8965" width="9.453125" customWidth="1"/>
-    <col min="8966" max="8966" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="5.453125" customWidth="1"/>
-    <col min="8970" max="8970" width="7.453125" customWidth="1"/>
-    <col min="8971" max="8971" width="6.6328125" customWidth="1"/>
-    <col min="8972" max="8972" width="6.08984375" customWidth="1"/>
-    <col min="8973" max="8973" width="5.54296875" customWidth="1"/>
+    <col min="8721" max="8721" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8722" max="8723" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8724" max="8724" width="9.42578125" customWidth="1"/>
+    <col min="8725" max="8729" width="7.5703125" customWidth="1"/>
+    <col min="8730" max="8730" width="10.42578125" customWidth="1"/>
+    <col min="8731" max="8731" width="8.85546875" customWidth="1"/>
+    <col min="8732" max="8737" width="7.5703125" customWidth="1"/>
+    <col min="8911" max="8964" width="11.42578125" customWidth="1"/>
+    <col min="8965" max="8965" width="9.42578125" customWidth="1"/>
+    <col min="8966" max="8967" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="5.42578125" customWidth="1"/>
+    <col min="8970" max="8970" width="7.42578125" customWidth="1"/>
+    <col min="8971" max="8971" width="6.5703125" customWidth="1"/>
+    <col min="8972" max="8972" width="6.140625" customWidth="1"/>
+    <col min="8973" max="8973" width="5.5703125" customWidth="1"/>
     <col min="8974" max="8976" width="7" bestFit="1" customWidth="1"/>
-    <col min="8977" max="8977" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="8978" max="8979" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="8980" max="8980" width="9.36328125" customWidth="1"/>
-    <col min="8981" max="8985" width="7.6328125" customWidth="1"/>
-    <col min="8986" max="8986" width="10.453125" customWidth="1"/>
-    <col min="8987" max="8987" width="8.90625" customWidth="1"/>
-    <col min="8988" max="8993" width="7.6328125" customWidth="1"/>
-    <col min="9167" max="9220" width="11.453125" customWidth="1"/>
-    <col min="9221" max="9221" width="9.453125" customWidth="1"/>
-    <col min="9222" max="9222" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="5.453125" customWidth="1"/>
-    <col min="9226" max="9226" width="7.453125" customWidth="1"/>
-    <col min="9227" max="9227" width="6.6328125" customWidth="1"/>
-    <col min="9228" max="9228" width="6.08984375" customWidth="1"/>
-    <col min="9229" max="9229" width="5.54296875" customWidth="1"/>
+    <col min="8977" max="8977" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8978" max="8979" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8980" max="8980" width="9.42578125" customWidth="1"/>
+    <col min="8981" max="8985" width="7.5703125" customWidth="1"/>
+    <col min="8986" max="8986" width="10.42578125" customWidth="1"/>
+    <col min="8987" max="8987" width="8.85546875" customWidth="1"/>
+    <col min="8988" max="8993" width="7.5703125" customWidth="1"/>
+    <col min="9167" max="9220" width="11.42578125" customWidth="1"/>
+    <col min="9221" max="9221" width="9.42578125" customWidth="1"/>
+    <col min="9222" max="9223" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="5.42578125" customWidth="1"/>
+    <col min="9226" max="9226" width="7.42578125" customWidth="1"/>
+    <col min="9227" max="9227" width="6.5703125" customWidth="1"/>
+    <col min="9228" max="9228" width="6.140625" customWidth="1"/>
+    <col min="9229" max="9229" width="5.5703125" customWidth="1"/>
     <col min="9230" max="9232" width="7" bestFit="1" customWidth="1"/>
-    <col min="9233" max="9233" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="9234" max="9235" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="9236" max="9236" width="9.36328125" customWidth="1"/>
-    <col min="9237" max="9241" width="7.6328125" customWidth="1"/>
-    <col min="9242" max="9242" width="10.453125" customWidth="1"/>
-    <col min="9243" max="9243" width="8.90625" customWidth="1"/>
-    <col min="9244" max="9249" width="7.6328125" customWidth="1"/>
-    <col min="9423" max="9476" width="11.453125" customWidth="1"/>
-    <col min="9477" max="9477" width="9.453125" customWidth="1"/>
-    <col min="9478" max="9478" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="5.453125" customWidth="1"/>
-    <col min="9482" max="9482" width="7.453125" customWidth="1"/>
-    <col min="9483" max="9483" width="6.6328125" customWidth="1"/>
-    <col min="9484" max="9484" width="6.08984375" customWidth="1"/>
-    <col min="9485" max="9485" width="5.54296875" customWidth="1"/>
+    <col min="9233" max="9233" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9234" max="9235" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9236" max="9236" width="9.42578125" customWidth="1"/>
+    <col min="9237" max="9241" width="7.5703125" customWidth="1"/>
+    <col min="9242" max="9242" width="10.42578125" customWidth="1"/>
+    <col min="9243" max="9243" width="8.85546875" customWidth="1"/>
+    <col min="9244" max="9249" width="7.5703125" customWidth="1"/>
+    <col min="9423" max="9476" width="11.42578125" customWidth="1"/>
+    <col min="9477" max="9477" width="9.42578125" customWidth="1"/>
+    <col min="9478" max="9479" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="5.42578125" customWidth="1"/>
+    <col min="9482" max="9482" width="7.42578125" customWidth="1"/>
+    <col min="9483" max="9483" width="6.5703125" customWidth="1"/>
+    <col min="9484" max="9484" width="6.140625" customWidth="1"/>
+    <col min="9485" max="9485" width="5.5703125" customWidth="1"/>
     <col min="9486" max="9488" width="7" bestFit="1" customWidth="1"/>
-    <col min="9489" max="9489" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="9490" max="9491" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="9492" max="9492" width="9.36328125" customWidth="1"/>
-    <col min="9493" max="9497" width="7.6328125" customWidth="1"/>
-    <col min="9498" max="9498" width="10.453125" customWidth="1"/>
-    <col min="9499" max="9499" width="8.90625" customWidth="1"/>
-    <col min="9500" max="9505" width="7.6328125" customWidth="1"/>
-    <col min="9679" max="9732" width="11.453125" customWidth="1"/>
-    <col min="9733" max="9733" width="9.453125" customWidth="1"/>
-    <col min="9734" max="9734" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="5.453125" customWidth="1"/>
-    <col min="9738" max="9738" width="7.453125" customWidth="1"/>
-    <col min="9739" max="9739" width="6.6328125" customWidth="1"/>
-    <col min="9740" max="9740" width="6.08984375" customWidth="1"/>
-    <col min="9741" max="9741" width="5.54296875" customWidth="1"/>
+    <col min="9489" max="9489" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9490" max="9491" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9492" max="9492" width="9.42578125" customWidth="1"/>
+    <col min="9493" max="9497" width="7.5703125" customWidth="1"/>
+    <col min="9498" max="9498" width="10.42578125" customWidth="1"/>
+    <col min="9499" max="9499" width="8.85546875" customWidth="1"/>
+    <col min="9500" max="9505" width="7.5703125" customWidth="1"/>
+    <col min="9679" max="9732" width="11.42578125" customWidth="1"/>
+    <col min="9733" max="9733" width="9.42578125" customWidth="1"/>
+    <col min="9734" max="9735" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="5.42578125" customWidth="1"/>
+    <col min="9738" max="9738" width="7.42578125" customWidth="1"/>
+    <col min="9739" max="9739" width="6.5703125" customWidth="1"/>
+    <col min="9740" max="9740" width="6.140625" customWidth="1"/>
+    <col min="9741" max="9741" width="5.5703125" customWidth="1"/>
     <col min="9742" max="9744" width="7" bestFit="1" customWidth="1"/>
-    <col min="9745" max="9745" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="9746" max="9747" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="9748" max="9748" width="9.36328125" customWidth="1"/>
-    <col min="9749" max="9753" width="7.6328125" customWidth="1"/>
-    <col min="9754" max="9754" width="10.453125" customWidth="1"/>
-    <col min="9755" max="9755" width="8.90625" customWidth="1"/>
-    <col min="9756" max="9761" width="7.6328125" customWidth="1"/>
-    <col min="9935" max="9988" width="11.453125" customWidth="1"/>
-    <col min="9989" max="9989" width="9.453125" customWidth="1"/>
-    <col min="9990" max="9990" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="5.453125" customWidth="1"/>
-    <col min="9994" max="9994" width="7.453125" customWidth="1"/>
-    <col min="9995" max="9995" width="6.6328125" customWidth="1"/>
-    <col min="9996" max="9996" width="6.08984375" customWidth="1"/>
-    <col min="9997" max="9997" width="5.54296875" customWidth="1"/>
+    <col min="9745" max="9745" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9746" max="9747" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9748" max="9748" width="9.42578125" customWidth="1"/>
+    <col min="9749" max="9753" width="7.5703125" customWidth="1"/>
+    <col min="9754" max="9754" width="10.42578125" customWidth="1"/>
+    <col min="9755" max="9755" width="8.85546875" customWidth="1"/>
+    <col min="9756" max="9761" width="7.5703125" customWidth="1"/>
+    <col min="9935" max="9988" width="11.42578125" customWidth="1"/>
+    <col min="9989" max="9989" width="9.42578125" customWidth="1"/>
+    <col min="9990" max="9991" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="5.42578125" customWidth="1"/>
+    <col min="9994" max="9994" width="7.42578125" customWidth="1"/>
+    <col min="9995" max="9995" width="6.5703125" customWidth="1"/>
+    <col min="9996" max="9996" width="6.140625" customWidth="1"/>
+    <col min="9997" max="9997" width="5.5703125" customWidth="1"/>
     <col min="9998" max="10000" width="7" bestFit="1" customWidth="1"/>
-    <col min="10001" max="10001" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="10002" max="10003" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="10004" max="10004" width="9.36328125" customWidth="1"/>
-    <col min="10005" max="10009" width="7.6328125" customWidth="1"/>
-    <col min="10010" max="10010" width="10.453125" customWidth="1"/>
-    <col min="10011" max="10011" width="8.90625" customWidth="1"/>
-    <col min="10012" max="10017" width="7.6328125" customWidth="1"/>
-    <col min="10191" max="10244" width="11.453125" customWidth="1"/>
-    <col min="10245" max="10245" width="9.453125" customWidth="1"/>
-    <col min="10246" max="10246" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="5.453125" customWidth="1"/>
-    <col min="10250" max="10250" width="7.453125" customWidth="1"/>
-    <col min="10251" max="10251" width="6.6328125" customWidth="1"/>
-    <col min="10252" max="10252" width="6.08984375" customWidth="1"/>
-    <col min="10253" max="10253" width="5.54296875" customWidth="1"/>
+    <col min="10001" max="10001" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10002" max="10003" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10004" max="10004" width="9.42578125" customWidth="1"/>
+    <col min="10005" max="10009" width="7.5703125" customWidth="1"/>
+    <col min="10010" max="10010" width="10.42578125" customWidth="1"/>
+    <col min="10011" max="10011" width="8.85546875" customWidth="1"/>
+    <col min="10012" max="10017" width="7.5703125" customWidth="1"/>
+    <col min="10191" max="10244" width="11.42578125" customWidth="1"/>
+    <col min="10245" max="10245" width="9.42578125" customWidth="1"/>
+    <col min="10246" max="10247" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="5.42578125" customWidth="1"/>
+    <col min="10250" max="10250" width="7.42578125" customWidth="1"/>
+    <col min="10251" max="10251" width="6.5703125" customWidth="1"/>
+    <col min="10252" max="10252" width="6.140625" customWidth="1"/>
+    <col min="10253" max="10253" width="5.5703125" customWidth="1"/>
     <col min="10254" max="10256" width="7" bestFit="1" customWidth="1"/>
-    <col min="10257" max="10257" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="10258" max="10259" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="10260" max="10260" width="9.36328125" customWidth="1"/>
-    <col min="10261" max="10265" width="7.6328125" customWidth="1"/>
-    <col min="10266" max="10266" width="10.453125" customWidth="1"/>
-    <col min="10267" max="10267" width="8.90625" customWidth="1"/>
-    <col min="10268" max="10273" width="7.6328125" customWidth="1"/>
-    <col min="10447" max="10500" width="11.453125" customWidth="1"/>
-    <col min="10501" max="10501" width="9.453125" customWidth="1"/>
-    <col min="10502" max="10502" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="5.453125" customWidth="1"/>
-    <col min="10506" max="10506" width="7.453125" customWidth="1"/>
-    <col min="10507" max="10507" width="6.6328125" customWidth="1"/>
-    <col min="10508" max="10508" width="6.08984375" customWidth="1"/>
-    <col min="10509" max="10509" width="5.54296875" customWidth="1"/>
+    <col min="10257" max="10257" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10258" max="10259" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10260" max="10260" width="9.42578125" customWidth="1"/>
+    <col min="10261" max="10265" width="7.5703125" customWidth="1"/>
+    <col min="10266" max="10266" width="10.42578125" customWidth="1"/>
+    <col min="10267" max="10267" width="8.85546875" customWidth="1"/>
+    <col min="10268" max="10273" width="7.5703125" customWidth="1"/>
+    <col min="10447" max="10500" width="11.42578125" customWidth="1"/>
+    <col min="10501" max="10501" width="9.42578125" customWidth="1"/>
+    <col min="10502" max="10503" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="5.42578125" customWidth="1"/>
+    <col min="10506" max="10506" width="7.42578125" customWidth="1"/>
+    <col min="10507" max="10507" width="6.5703125" customWidth="1"/>
+    <col min="10508" max="10508" width="6.140625" customWidth="1"/>
+    <col min="10509" max="10509" width="5.5703125" customWidth="1"/>
     <col min="10510" max="10512" width="7" bestFit="1" customWidth="1"/>
-    <col min="10513" max="10513" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="10514" max="10515" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="10516" max="10516" width="9.36328125" customWidth="1"/>
-    <col min="10517" max="10521" width="7.6328125" customWidth="1"/>
-    <col min="10522" max="10522" width="10.453125" customWidth="1"/>
-    <col min="10523" max="10523" width="8.90625" customWidth="1"/>
-    <col min="10524" max="10529" width="7.6328125" customWidth="1"/>
-    <col min="10703" max="10756" width="11.453125" customWidth="1"/>
-    <col min="10757" max="10757" width="9.453125" customWidth="1"/>
-    <col min="10758" max="10758" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="5.453125" customWidth="1"/>
-    <col min="10762" max="10762" width="7.453125" customWidth="1"/>
-    <col min="10763" max="10763" width="6.6328125" customWidth="1"/>
-    <col min="10764" max="10764" width="6.08984375" customWidth="1"/>
-    <col min="10765" max="10765" width="5.54296875" customWidth="1"/>
+    <col min="10513" max="10513" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10514" max="10515" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10516" max="10516" width="9.42578125" customWidth="1"/>
+    <col min="10517" max="10521" width="7.5703125" customWidth="1"/>
+    <col min="10522" max="10522" width="10.42578125" customWidth="1"/>
+    <col min="10523" max="10523" width="8.85546875" customWidth="1"/>
+    <col min="10524" max="10529" width="7.5703125" customWidth="1"/>
+    <col min="10703" max="10756" width="11.42578125" customWidth="1"/>
+    <col min="10757" max="10757" width="9.42578125" customWidth="1"/>
+    <col min="10758" max="10759" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="5.42578125" customWidth="1"/>
+    <col min="10762" max="10762" width="7.42578125" customWidth="1"/>
+    <col min="10763" max="10763" width="6.5703125" customWidth="1"/>
+    <col min="10764" max="10764" width="6.140625" customWidth="1"/>
+    <col min="10765" max="10765" width="5.5703125" customWidth="1"/>
     <col min="10766" max="10768" width="7" bestFit="1" customWidth="1"/>
-    <col min="10769" max="10769" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="10770" max="10771" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="10772" max="10772" width="9.36328125" customWidth="1"/>
-    <col min="10773" max="10777" width="7.6328125" customWidth="1"/>
-    <col min="10778" max="10778" width="10.453125" customWidth="1"/>
-    <col min="10779" max="10779" width="8.90625" customWidth="1"/>
-    <col min="10780" max="10785" width="7.6328125" customWidth="1"/>
-    <col min="10959" max="11012" width="11.453125" customWidth="1"/>
-    <col min="11013" max="11013" width="9.453125" customWidth="1"/>
-    <col min="11014" max="11014" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="5.453125" customWidth="1"/>
-    <col min="11018" max="11018" width="7.453125" customWidth="1"/>
-    <col min="11019" max="11019" width="6.6328125" customWidth="1"/>
-    <col min="11020" max="11020" width="6.08984375" customWidth="1"/>
-    <col min="11021" max="11021" width="5.54296875" customWidth="1"/>
+    <col min="10769" max="10769" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10770" max="10771" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10772" max="10772" width="9.42578125" customWidth="1"/>
+    <col min="10773" max="10777" width="7.5703125" customWidth="1"/>
+    <col min="10778" max="10778" width="10.42578125" customWidth="1"/>
+    <col min="10779" max="10779" width="8.85546875" customWidth="1"/>
+    <col min="10780" max="10785" width="7.5703125" customWidth="1"/>
+    <col min="10959" max="11012" width="11.42578125" customWidth="1"/>
+    <col min="11013" max="11013" width="9.42578125" customWidth="1"/>
+    <col min="11014" max="11015" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="5.42578125" customWidth="1"/>
+    <col min="11018" max="11018" width="7.42578125" customWidth="1"/>
+    <col min="11019" max="11019" width="6.5703125" customWidth="1"/>
+    <col min="11020" max="11020" width="6.140625" customWidth="1"/>
+    <col min="11021" max="11021" width="5.5703125" customWidth="1"/>
     <col min="11022" max="11024" width="7" bestFit="1" customWidth="1"/>
-    <col min="11025" max="11025" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="11026" max="11027" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="11028" max="11028" width="9.36328125" customWidth="1"/>
-    <col min="11029" max="11033" width="7.6328125" customWidth="1"/>
-    <col min="11034" max="11034" width="10.453125" customWidth="1"/>
-    <col min="11035" max="11035" width="8.90625" customWidth="1"/>
-    <col min="11036" max="11041" width="7.6328125" customWidth="1"/>
-    <col min="11215" max="11268" width="11.453125" customWidth="1"/>
-    <col min="11269" max="11269" width="9.453125" customWidth="1"/>
-    <col min="11270" max="11270" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="5.453125" customWidth="1"/>
-    <col min="11274" max="11274" width="7.453125" customWidth="1"/>
-    <col min="11275" max="11275" width="6.6328125" customWidth="1"/>
-    <col min="11276" max="11276" width="6.08984375" customWidth="1"/>
-    <col min="11277" max="11277" width="5.54296875" customWidth="1"/>
+    <col min="11025" max="11025" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11026" max="11027" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11028" max="11028" width="9.42578125" customWidth="1"/>
+    <col min="11029" max="11033" width="7.5703125" customWidth="1"/>
+    <col min="11034" max="11034" width="10.42578125" customWidth="1"/>
+    <col min="11035" max="11035" width="8.85546875" customWidth="1"/>
+    <col min="11036" max="11041" width="7.5703125" customWidth="1"/>
+    <col min="11215" max="11268" width="11.42578125" customWidth="1"/>
+    <col min="11269" max="11269" width="9.42578125" customWidth="1"/>
+    <col min="11270" max="11271" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="5.42578125" customWidth="1"/>
+    <col min="11274" max="11274" width="7.42578125" customWidth="1"/>
+    <col min="11275" max="11275" width="6.5703125" customWidth="1"/>
+    <col min="11276" max="11276" width="6.140625" customWidth="1"/>
+    <col min="11277" max="11277" width="5.5703125" customWidth="1"/>
     <col min="11278" max="11280" width="7" bestFit="1" customWidth="1"/>
-    <col min="11281" max="11281" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="11282" max="11283" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="11284" max="11284" width="9.36328125" customWidth="1"/>
-    <col min="11285" max="11289" width="7.6328125" customWidth="1"/>
-    <col min="11290" max="11290" width="10.453125" customWidth="1"/>
-    <col min="11291" max="11291" width="8.90625" customWidth="1"/>
-    <col min="11292" max="11297" width="7.6328125" customWidth="1"/>
-    <col min="11471" max="11524" width="11.453125" customWidth="1"/>
-    <col min="11525" max="11525" width="9.453125" customWidth="1"/>
-    <col min="11526" max="11526" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="5.453125" customWidth="1"/>
-    <col min="11530" max="11530" width="7.453125" customWidth="1"/>
-    <col min="11531" max="11531" width="6.6328125" customWidth="1"/>
-    <col min="11532" max="11532" width="6.08984375" customWidth="1"/>
-    <col min="11533" max="11533" width="5.54296875" customWidth="1"/>
+    <col min="11281" max="11281" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11282" max="11283" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11284" max="11284" width="9.42578125" customWidth="1"/>
+    <col min="11285" max="11289" width="7.5703125" customWidth="1"/>
+    <col min="11290" max="11290" width="10.42578125" customWidth="1"/>
+    <col min="11291" max="11291" width="8.85546875" customWidth="1"/>
+    <col min="11292" max="11297" width="7.5703125" customWidth="1"/>
+    <col min="11471" max="11524" width="11.42578125" customWidth="1"/>
+    <col min="11525" max="11525" width="9.42578125" customWidth="1"/>
+    <col min="11526" max="11527" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="5.42578125" customWidth="1"/>
+    <col min="11530" max="11530" width="7.42578125" customWidth="1"/>
+    <col min="11531" max="11531" width="6.5703125" customWidth="1"/>
+    <col min="11532" max="11532" width="6.140625" customWidth="1"/>
+    <col min="11533" max="11533" width="5.5703125" customWidth="1"/>
     <col min="11534" max="11536" width="7" bestFit="1" customWidth="1"/>
-    <col min="11537" max="11537" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="11538" max="11539" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="11540" max="11540" width="9.36328125" customWidth="1"/>
-    <col min="11541" max="11545" width="7.6328125" customWidth="1"/>
-    <col min="11546" max="11546" width="10.453125" customWidth="1"/>
-    <col min="11547" max="11547" width="8.90625" customWidth="1"/>
-    <col min="11548" max="11553" width="7.6328125" customWidth="1"/>
-    <col min="11727" max="11780" width="11.453125" customWidth="1"/>
-    <col min="11781" max="11781" width="9.453125" customWidth="1"/>
-    <col min="11782" max="11782" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="5.453125" customWidth="1"/>
-    <col min="11786" max="11786" width="7.453125" customWidth="1"/>
-    <col min="11787" max="11787" width="6.6328125" customWidth="1"/>
-    <col min="11788" max="11788" width="6.08984375" customWidth="1"/>
-    <col min="11789" max="11789" width="5.54296875" customWidth="1"/>
+    <col min="11537" max="11537" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11538" max="11539" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11540" max="11540" width="9.42578125" customWidth="1"/>
+    <col min="11541" max="11545" width="7.5703125" customWidth="1"/>
+    <col min="11546" max="11546" width="10.42578125" customWidth="1"/>
+    <col min="11547" max="11547" width="8.85546875" customWidth="1"/>
+    <col min="11548" max="11553" width="7.5703125" customWidth="1"/>
+    <col min="11727" max="11780" width="11.42578125" customWidth="1"/>
+    <col min="11781" max="11781" width="9.42578125" customWidth="1"/>
+    <col min="11782" max="11783" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="5.42578125" customWidth="1"/>
+    <col min="11786" max="11786" width="7.42578125" customWidth="1"/>
+    <col min="11787" max="11787" width="6.5703125" customWidth="1"/>
+    <col min="11788" max="11788" width="6.140625" customWidth="1"/>
+    <col min="11789" max="11789" width="5.5703125" customWidth="1"/>
     <col min="11790" max="11792" width="7" bestFit="1" customWidth="1"/>
-    <col min="11793" max="11793" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="11794" max="11795" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="11796" max="11796" width="9.36328125" customWidth="1"/>
-    <col min="11797" max="11801" width="7.6328125" customWidth="1"/>
-    <col min="11802" max="11802" width="10.453125" customWidth="1"/>
-    <col min="11803" max="11803" width="8.90625" customWidth="1"/>
-    <col min="11804" max="11809" width="7.6328125" customWidth="1"/>
-    <col min="11983" max="12036" width="11.453125" customWidth="1"/>
-    <col min="12037" max="12037" width="9.453125" customWidth="1"/>
-    <col min="12038" max="12038" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="5.453125" customWidth="1"/>
-    <col min="12042" max="12042" width="7.453125" customWidth="1"/>
-    <col min="12043" max="12043" width="6.6328125" customWidth="1"/>
-    <col min="12044" max="12044" width="6.08984375" customWidth="1"/>
-    <col min="12045" max="12045" width="5.54296875" customWidth="1"/>
+    <col min="11793" max="11793" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11794" max="11795" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11796" max="11796" width="9.42578125" customWidth="1"/>
+    <col min="11797" max="11801" width="7.5703125" customWidth="1"/>
+    <col min="11802" max="11802" width="10.42578125" customWidth="1"/>
+    <col min="11803" max="11803" width="8.85546875" customWidth="1"/>
+    <col min="11804" max="11809" width="7.5703125" customWidth="1"/>
+    <col min="11983" max="12036" width="11.42578125" customWidth="1"/>
+    <col min="12037" max="12037" width="9.42578125" customWidth="1"/>
+    <col min="12038" max="12039" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="5.42578125" customWidth="1"/>
+    <col min="12042" max="12042" width="7.42578125" customWidth="1"/>
+    <col min="12043" max="12043" width="6.5703125" customWidth="1"/>
+    <col min="12044" max="12044" width="6.140625" customWidth="1"/>
+    <col min="12045" max="12045" width="5.5703125" customWidth="1"/>
     <col min="12046" max="12048" width="7" bestFit="1" customWidth="1"/>
-    <col min="12049" max="12049" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="12050" max="12051" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="12052" max="12052" width="9.36328125" customWidth="1"/>
-    <col min="12053" max="12057" width="7.6328125" customWidth="1"/>
-    <col min="12058" max="12058" width="10.453125" customWidth="1"/>
-    <col min="12059" max="12059" width="8.90625" customWidth="1"/>
-    <col min="12060" max="12065" width="7.6328125" customWidth="1"/>
-    <col min="12239" max="12292" width="11.453125" customWidth="1"/>
-    <col min="12293" max="12293" width="9.453125" customWidth="1"/>
-    <col min="12294" max="12294" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="5.453125" customWidth="1"/>
-    <col min="12298" max="12298" width="7.453125" customWidth="1"/>
-    <col min="12299" max="12299" width="6.6328125" customWidth="1"/>
-    <col min="12300" max="12300" width="6.08984375" customWidth="1"/>
-    <col min="12301" max="12301" width="5.54296875" customWidth="1"/>
+    <col min="12049" max="12049" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="12050" max="12051" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12052" max="12052" width="9.42578125" customWidth="1"/>
+    <col min="12053" max="12057" width="7.5703125" customWidth="1"/>
+    <col min="12058" max="12058" width="10.42578125" customWidth="1"/>
+    <col min="12059" max="12059" width="8.85546875" customWidth="1"/>
+    <col min="12060" max="12065" width="7.5703125" customWidth="1"/>
+    <col min="12239" max="12292" width="11.42578125" customWidth="1"/>
+    <col min="12293" max="12293" width="9.42578125" customWidth="1"/>
+    <col min="12294" max="12295" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="5.42578125" customWidth="1"/>
+    <col min="12298" max="12298" width="7.42578125" customWidth="1"/>
+    <col min="12299" max="12299" width="6.5703125" customWidth="1"/>
+    <col min="12300" max="12300" width="6.140625" customWidth="1"/>
+    <col min="12301" max="12301" width="5.5703125" customWidth="1"/>
     <col min="12302" max="12304" width="7" bestFit="1" customWidth="1"/>
-    <col min="12305" max="12305" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="12306" max="12307" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="12308" max="12308" width="9.36328125" customWidth="1"/>
-    <col min="12309" max="12313" width="7.6328125" customWidth="1"/>
-    <col min="12314" max="12314" width="10.453125" customWidth="1"/>
-    <col min="12315" max="12315" width="8.90625" customWidth="1"/>
-    <col min="12316" max="12321" width="7.6328125" customWidth="1"/>
-    <col min="12495" max="12548" width="11.453125" customWidth="1"/>
-    <col min="12549" max="12549" width="9.453125" customWidth="1"/>
-    <col min="12550" max="12550" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="5.453125" customWidth="1"/>
-    <col min="12554" max="12554" width="7.453125" customWidth="1"/>
-    <col min="12555" max="12555" width="6.6328125" customWidth="1"/>
-    <col min="12556" max="12556" width="6.08984375" customWidth="1"/>
-    <col min="12557" max="12557" width="5.54296875" customWidth="1"/>
+    <col min="12305" max="12305" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="12306" max="12307" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12308" max="12308" width="9.42578125" customWidth="1"/>
+    <col min="12309" max="12313" width="7.5703125" customWidth="1"/>
+    <col min="12314" max="12314" width="10.42578125" customWidth="1"/>
+    <col min="12315" max="12315" width="8.85546875" customWidth="1"/>
+    <col min="12316" max="12321" width="7.5703125" customWidth="1"/>
+    <col min="12495" max="12548" width="11.42578125" customWidth="1"/>
+    <col min="12549" max="12549" width="9.42578125" customWidth="1"/>
+    <col min="12550" max="12551" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="5.42578125" customWidth="1"/>
+    <col min="12554" max="12554" width="7.42578125" customWidth="1"/>
+    <col min="12555" max="12555" width="6.5703125" customWidth="1"/>
+    <col min="12556" max="12556" width="6.140625" customWidth="1"/>
+    <col min="12557" max="12557" width="5.5703125" customWidth="1"/>
     <col min="12558" max="12560" width="7" bestFit="1" customWidth="1"/>
-    <col min="12561" max="12561" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="12562" max="12563" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="12564" max="12564" width="9.36328125" customWidth="1"/>
-    <col min="12565" max="12569" width="7.6328125" customWidth="1"/>
-    <col min="12570" max="12570" width="10.453125" customWidth="1"/>
-    <col min="12571" max="12571" width="8.90625" customWidth="1"/>
-    <col min="12572" max="12577" width="7.6328125" customWidth="1"/>
-    <col min="12751" max="12804" width="11.453125" customWidth="1"/>
-    <col min="12805" max="12805" width="9.453125" customWidth="1"/>
-    <col min="12806" max="12806" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="5.453125" customWidth="1"/>
-    <col min="12810" max="12810" width="7.453125" customWidth="1"/>
-    <col min="12811" max="12811" width="6.6328125" customWidth="1"/>
-    <col min="12812" max="12812" width="6.08984375" customWidth="1"/>
-    <col min="12813" max="12813" width="5.54296875" customWidth="1"/>
+    <col min="12561" max="12561" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="12562" max="12563" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12564" max="12564" width="9.42578125" customWidth="1"/>
+    <col min="12565" max="12569" width="7.5703125" customWidth="1"/>
+    <col min="12570" max="12570" width="10.42578125" customWidth="1"/>
+    <col min="12571" max="12571" width="8.85546875" customWidth="1"/>
+    <col min="12572" max="12577" width="7.5703125" customWidth="1"/>
+    <col min="12751" max="12804" width="11.42578125" customWidth="1"/>
+    <col min="12805" max="12805" width="9.42578125" customWidth="1"/>
+    <col min="12806" max="12807" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="5.42578125" customWidth="1"/>
+    <col min="12810" max="12810" width="7.42578125" customWidth="1"/>
+    <col min="12811" max="12811" width="6.5703125" customWidth="1"/>
+    <col min="12812" max="12812" width="6.140625" customWidth="1"/>
+    <col min="12813" max="12813" width="5.5703125" customWidth="1"/>
     <col min="12814" max="12816" width="7" bestFit="1" customWidth="1"/>
-    <col min="12817" max="12817" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="12818" max="12819" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="12820" max="12820" width="9.36328125" customWidth="1"/>
-    <col min="12821" max="12825" width="7.6328125" customWidth="1"/>
-    <col min="12826" max="12826" width="10.453125" customWidth="1"/>
-    <col min="12827" max="12827" width="8.90625" customWidth="1"/>
-    <col min="12828" max="12833" width="7.6328125" customWidth="1"/>
-    <col min="13007" max="13060" width="11.453125" customWidth="1"/>
-    <col min="13061" max="13061" width="9.453125" customWidth="1"/>
-    <col min="13062" max="13062" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="5.453125" customWidth="1"/>
-    <col min="13066" max="13066" width="7.453125" customWidth="1"/>
-    <col min="13067" max="13067" width="6.6328125" customWidth="1"/>
-    <col min="13068" max="13068" width="6.08984375" customWidth="1"/>
-    <col min="13069" max="13069" width="5.54296875" customWidth="1"/>
+    <col min="12817" max="12817" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="12818" max="12819" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12820" max="12820" width="9.42578125" customWidth="1"/>
+    <col min="12821" max="12825" width="7.5703125" customWidth="1"/>
+    <col min="12826" max="12826" width="10.42578125" customWidth="1"/>
+    <col min="12827" max="12827" width="8.85546875" customWidth="1"/>
+    <col min="12828" max="12833" width="7.5703125" customWidth="1"/>
+    <col min="13007" max="13060" width="11.42578125" customWidth="1"/>
+    <col min="13061" max="13061" width="9.42578125" customWidth="1"/>
+    <col min="13062" max="13063" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="5.42578125" customWidth="1"/>
+    <col min="13066" max="13066" width="7.42578125" customWidth="1"/>
+    <col min="13067" max="13067" width="6.5703125" customWidth="1"/>
+    <col min="13068" max="13068" width="6.140625" customWidth="1"/>
+    <col min="13069" max="13069" width="5.5703125" customWidth="1"/>
     <col min="13070" max="13072" width="7" bestFit="1" customWidth="1"/>
-    <col min="13073" max="13073" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="13074" max="13075" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="13076" max="13076" width="9.36328125" customWidth="1"/>
-    <col min="13077" max="13081" width="7.6328125" customWidth="1"/>
-    <col min="13082" max="13082" width="10.453125" customWidth="1"/>
-    <col min="13083" max="13083" width="8.90625" customWidth="1"/>
-    <col min="13084" max="13089" width="7.6328125" customWidth="1"/>
-    <col min="13263" max="13316" width="11.453125" customWidth="1"/>
-    <col min="13317" max="13317" width="9.453125" customWidth="1"/>
-    <col min="13318" max="13318" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="5.453125" customWidth="1"/>
-    <col min="13322" max="13322" width="7.453125" customWidth="1"/>
-    <col min="13323" max="13323" width="6.6328125" customWidth="1"/>
-    <col min="13324" max="13324" width="6.08984375" customWidth="1"/>
-    <col min="13325" max="13325" width="5.54296875" customWidth="1"/>
+    <col min="13073" max="13073" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13074" max="13075" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13076" max="13076" width="9.42578125" customWidth="1"/>
+    <col min="13077" max="13081" width="7.5703125" customWidth="1"/>
+    <col min="13082" max="13082" width="10.42578125" customWidth="1"/>
+    <col min="13083" max="13083" width="8.85546875" customWidth="1"/>
+    <col min="13084" max="13089" width="7.5703125" customWidth="1"/>
+    <col min="13263" max="13316" width="11.42578125" customWidth="1"/>
+    <col min="13317" max="13317" width="9.42578125" customWidth="1"/>
+    <col min="13318" max="13319" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="5.42578125" customWidth="1"/>
+    <col min="13322" max="13322" width="7.42578125" customWidth="1"/>
+    <col min="13323" max="13323" width="6.5703125" customWidth="1"/>
+    <col min="13324" max="13324" width="6.140625" customWidth="1"/>
+    <col min="13325" max="13325" width="5.5703125" customWidth="1"/>
     <col min="13326" max="13328" width="7" bestFit="1" customWidth="1"/>
-    <col min="13329" max="13329" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="13330" max="13331" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="13332" max="13332" width="9.36328125" customWidth="1"/>
-    <col min="13333" max="13337" width="7.6328125" customWidth="1"/>
-    <col min="13338" max="13338" width="10.453125" customWidth="1"/>
-    <col min="13339" max="13339" width="8.90625" customWidth="1"/>
-    <col min="13340" max="13345" width="7.6328125" customWidth="1"/>
-    <col min="13519" max="13572" width="11.453125" customWidth="1"/>
-    <col min="13573" max="13573" width="9.453125" customWidth="1"/>
-    <col min="13574" max="13574" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="5.453125" customWidth="1"/>
-    <col min="13578" max="13578" width="7.453125" customWidth="1"/>
-    <col min="13579" max="13579" width="6.6328125" customWidth="1"/>
-    <col min="13580" max="13580" width="6.08984375" customWidth="1"/>
-    <col min="13581" max="13581" width="5.54296875" customWidth="1"/>
+    <col min="13329" max="13329" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13330" max="13331" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13332" max="13332" width="9.42578125" customWidth="1"/>
+    <col min="13333" max="13337" width="7.5703125" customWidth="1"/>
+    <col min="13338" max="13338" width="10.42578125" customWidth="1"/>
+    <col min="13339" max="13339" width="8.85546875" customWidth="1"/>
+    <col min="13340" max="13345" width="7.5703125" customWidth="1"/>
+    <col min="13519" max="13572" width="11.42578125" customWidth="1"/>
+    <col min="13573" max="13573" width="9.42578125" customWidth="1"/>
+    <col min="13574" max="13575" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="5.42578125" customWidth="1"/>
+    <col min="13578" max="13578" width="7.42578125" customWidth="1"/>
+    <col min="13579" max="13579" width="6.5703125" customWidth="1"/>
+    <col min="13580" max="13580" width="6.140625" customWidth="1"/>
+    <col min="13581" max="13581" width="5.5703125" customWidth="1"/>
     <col min="13582" max="13584" width="7" bestFit="1" customWidth="1"/>
-    <col min="13585" max="13585" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="13586" max="13587" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="13588" max="13588" width="9.36328125" customWidth="1"/>
-    <col min="13589" max="13593" width="7.6328125" customWidth="1"/>
-    <col min="13594" max="13594" width="10.453125" customWidth="1"/>
-    <col min="13595" max="13595" width="8.90625" customWidth="1"/>
-    <col min="13596" max="13601" width="7.6328125" customWidth="1"/>
-    <col min="13775" max="13828" width="11.453125" customWidth="1"/>
-    <col min="13829" max="13829" width="9.453125" customWidth="1"/>
-    <col min="13830" max="13830" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="5.453125" customWidth="1"/>
-    <col min="13834" max="13834" width="7.453125" customWidth="1"/>
-    <col min="13835" max="13835" width="6.6328125" customWidth="1"/>
-    <col min="13836" max="13836" width="6.08984375" customWidth="1"/>
-    <col min="13837" max="13837" width="5.54296875" customWidth="1"/>
+    <col min="13585" max="13585" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13586" max="13587" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13588" max="13588" width="9.42578125" customWidth="1"/>
+    <col min="13589" max="13593" width="7.5703125" customWidth="1"/>
+    <col min="13594" max="13594" width="10.42578125" customWidth="1"/>
+    <col min="13595" max="13595" width="8.85546875" customWidth="1"/>
+    <col min="13596" max="13601" width="7.5703125" customWidth="1"/>
+    <col min="13775" max="13828" width="11.42578125" customWidth="1"/>
+    <col min="13829" max="13829" width="9.42578125" customWidth="1"/>
+    <col min="13830" max="13831" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="5.42578125" customWidth="1"/>
+    <col min="13834" max="13834" width="7.42578125" customWidth="1"/>
+    <col min="13835" max="13835" width="6.5703125" customWidth="1"/>
+    <col min="13836" max="13836" width="6.140625" customWidth="1"/>
+    <col min="13837" max="13837" width="5.5703125" customWidth="1"/>
     <col min="13838" max="13840" width="7" bestFit="1" customWidth="1"/>
-    <col min="13841" max="13841" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="13842" max="13843" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="13844" max="13844" width="9.36328125" customWidth="1"/>
-    <col min="13845" max="13849" width="7.6328125" customWidth="1"/>
-    <col min="13850" max="13850" width="10.453125" customWidth="1"/>
-    <col min="13851" max="13851" width="8.90625" customWidth="1"/>
-    <col min="13852" max="13857" width="7.6328125" customWidth="1"/>
-    <col min="14031" max="14084" width="11.453125" customWidth="1"/>
-    <col min="14085" max="14085" width="9.453125" customWidth="1"/>
-    <col min="14086" max="14086" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="5.453125" customWidth="1"/>
-    <col min="14090" max="14090" width="7.453125" customWidth="1"/>
-    <col min="14091" max="14091" width="6.6328125" customWidth="1"/>
-    <col min="14092" max="14092" width="6.08984375" customWidth="1"/>
-    <col min="14093" max="14093" width="5.54296875" customWidth="1"/>
+    <col min="13841" max="13841" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13842" max="13843" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13844" max="13844" width="9.42578125" customWidth="1"/>
+    <col min="13845" max="13849" width="7.5703125" customWidth="1"/>
+    <col min="13850" max="13850" width="10.42578125" customWidth="1"/>
+    <col min="13851" max="13851" width="8.85546875" customWidth="1"/>
+    <col min="13852" max="13857" width="7.5703125" customWidth="1"/>
+    <col min="14031" max="14084" width="11.42578125" customWidth="1"/>
+    <col min="14085" max="14085" width="9.42578125" customWidth="1"/>
+    <col min="14086" max="14087" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="5.42578125" customWidth="1"/>
+    <col min="14090" max="14090" width="7.42578125" customWidth="1"/>
+    <col min="14091" max="14091" width="6.5703125" customWidth="1"/>
+    <col min="14092" max="14092" width="6.140625" customWidth="1"/>
+    <col min="14093" max="14093" width="5.5703125" customWidth="1"/>
     <col min="14094" max="14096" width="7" bestFit="1" customWidth="1"/>
-    <col min="14097" max="14097" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="14098" max="14099" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="14100" max="14100" width="9.36328125" customWidth="1"/>
-    <col min="14101" max="14105" width="7.6328125" customWidth="1"/>
-    <col min="14106" max="14106" width="10.453125" customWidth="1"/>
-    <col min="14107" max="14107" width="8.90625" customWidth="1"/>
-    <col min="14108" max="14113" width="7.6328125" customWidth="1"/>
-    <col min="14287" max="14340" width="11.453125" customWidth="1"/>
-    <col min="14341" max="14341" width="9.453125" customWidth="1"/>
-    <col min="14342" max="14342" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="5.453125" customWidth="1"/>
-    <col min="14346" max="14346" width="7.453125" customWidth="1"/>
-    <col min="14347" max="14347" width="6.6328125" customWidth="1"/>
-    <col min="14348" max="14348" width="6.08984375" customWidth="1"/>
-    <col min="14349" max="14349" width="5.54296875" customWidth="1"/>
+    <col min="14097" max="14097" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14098" max="14099" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14100" max="14100" width="9.42578125" customWidth="1"/>
+    <col min="14101" max="14105" width="7.5703125" customWidth="1"/>
+    <col min="14106" max="14106" width="10.42578125" customWidth="1"/>
+    <col min="14107" max="14107" width="8.85546875" customWidth="1"/>
+    <col min="14108" max="14113" width="7.5703125" customWidth="1"/>
+    <col min="14287" max="14340" width="11.42578125" customWidth="1"/>
+    <col min="14341" max="14341" width="9.42578125" customWidth="1"/>
+    <col min="14342" max="14343" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="5.42578125" customWidth="1"/>
+    <col min="14346" max="14346" width="7.42578125" customWidth="1"/>
+    <col min="14347" max="14347" width="6.5703125" customWidth="1"/>
+    <col min="14348" max="14348" width="6.140625" customWidth="1"/>
+    <col min="14349" max="14349" width="5.5703125" customWidth="1"/>
     <col min="14350" max="14352" width="7" bestFit="1" customWidth="1"/>
-    <col min="14353" max="14353" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="14354" max="14355" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="14356" max="14356" width="9.36328125" customWidth="1"/>
-    <col min="14357" max="14361" width="7.6328125" customWidth="1"/>
-    <col min="14362" max="14362" width="10.453125" customWidth="1"/>
-    <col min="14363" max="14363" width="8.90625" customWidth="1"/>
-    <col min="14364" max="14369" width="7.6328125" customWidth="1"/>
-    <col min="14543" max="14596" width="11.453125" customWidth="1"/>
-    <col min="14597" max="14597" width="9.453125" customWidth="1"/>
-    <col min="14598" max="14598" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="5.453125" customWidth="1"/>
-    <col min="14602" max="14602" width="7.453125" customWidth="1"/>
-    <col min="14603" max="14603" width="6.6328125" customWidth="1"/>
-    <col min="14604" max="14604" width="6.08984375" customWidth="1"/>
-    <col min="14605" max="14605" width="5.54296875" customWidth="1"/>
+    <col min="14353" max="14353" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14354" max="14355" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14356" max="14356" width="9.42578125" customWidth="1"/>
+    <col min="14357" max="14361" width="7.5703125" customWidth="1"/>
+    <col min="14362" max="14362" width="10.42578125" customWidth="1"/>
+    <col min="14363" max="14363" width="8.85546875" customWidth="1"/>
+    <col min="14364" max="14369" width="7.5703125" customWidth="1"/>
+    <col min="14543" max="14596" width="11.42578125" customWidth="1"/>
+    <col min="14597" max="14597" width="9.42578125" customWidth="1"/>
+    <col min="14598" max="14599" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="5.42578125" customWidth="1"/>
+    <col min="14602" max="14602" width="7.42578125" customWidth="1"/>
+    <col min="14603" max="14603" width="6.5703125" customWidth="1"/>
+    <col min="14604" max="14604" width="6.140625" customWidth="1"/>
+    <col min="14605" max="14605" width="5.5703125" customWidth="1"/>
     <col min="14606" max="14608" width="7" bestFit="1" customWidth="1"/>
-    <col min="14609" max="14609" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="14610" max="14611" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="14612" max="14612" width="9.36328125" customWidth="1"/>
-    <col min="14613" max="14617" width="7.6328125" customWidth="1"/>
-    <col min="14618" max="14618" width="10.453125" customWidth="1"/>
-    <col min="14619" max="14619" width="8.90625" customWidth="1"/>
-    <col min="14620" max="14625" width="7.6328125" customWidth="1"/>
-    <col min="14799" max="14852" width="11.453125" customWidth="1"/>
-    <col min="14853" max="14853" width="9.453125" customWidth="1"/>
-    <col min="14854" max="14854" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="5.453125" customWidth="1"/>
-    <col min="14858" max="14858" width="7.453125" customWidth="1"/>
-    <col min="14859" max="14859" width="6.6328125" customWidth="1"/>
-    <col min="14860" max="14860" width="6.08984375" customWidth="1"/>
-    <col min="14861" max="14861" width="5.54296875" customWidth="1"/>
+    <col min="14609" max="14609" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14610" max="14611" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14612" max="14612" width="9.42578125" customWidth="1"/>
+    <col min="14613" max="14617" width="7.5703125" customWidth="1"/>
+    <col min="14618" max="14618" width="10.42578125" customWidth="1"/>
+    <col min="14619" max="14619" width="8.85546875" customWidth="1"/>
+    <col min="14620" max="14625" width="7.5703125" customWidth="1"/>
+    <col min="14799" max="14852" width="11.42578125" customWidth="1"/>
+    <col min="14853" max="14853" width="9.42578125" customWidth="1"/>
+    <col min="14854" max="14855" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="5.42578125" customWidth="1"/>
+    <col min="14858" max="14858" width="7.42578125" customWidth="1"/>
+    <col min="14859" max="14859" width="6.5703125" customWidth="1"/>
+    <col min="14860" max="14860" width="6.140625" customWidth="1"/>
+    <col min="14861" max="14861" width="5.5703125" customWidth="1"/>
     <col min="14862" max="14864" width="7" bestFit="1" customWidth="1"/>
-    <col min="14865" max="14865" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="14866" max="14867" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="14868" max="14868" width="9.36328125" customWidth="1"/>
-    <col min="14869" max="14873" width="7.6328125" customWidth="1"/>
-    <col min="14874" max="14874" width="10.453125" customWidth="1"/>
-    <col min="14875" max="14875" width="8.90625" customWidth="1"/>
-    <col min="14876" max="14881" width="7.6328125" customWidth="1"/>
-    <col min="15055" max="15108" width="11.453125" customWidth="1"/>
-    <col min="15109" max="15109" width="9.453125" customWidth="1"/>
-    <col min="15110" max="15110" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="5.453125" customWidth="1"/>
-    <col min="15114" max="15114" width="7.453125" customWidth="1"/>
-    <col min="15115" max="15115" width="6.6328125" customWidth="1"/>
-    <col min="15116" max="15116" width="6.08984375" customWidth="1"/>
-    <col min="15117" max="15117" width="5.54296875" customWidth="1"/>
+    <col min="14865" max="14865" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14866" max="14867" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14868" max="14868" width="9.42578125" customWidth="1"/>
+    <col min="14869" max="14873" width="7.5703125" customWidth="1"/>
+    <col min="14874" max="14874" width="10.42578125" customWidth="1"/>
+    <col min="14875" max="14875" width="8.85546875" customWidth="1"/>
+    <col min="14876" max="14881" width="7.5703125" customWidth="1"/>
+    <col min="15055" max="15108" width="11.42578125" customWidth="1"/>
+    <col min="15109" max="15109" width="9.42578125" customWidth="1"/>
+    <col min="15110" max="15111" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="5.42578125" customWidth="1"/>
+    <col min="15114" max="15114" width="7.42578125" customWidth="1"/>
+    <col min="15115" max="15115" width="6.5703125" customWidth="1"/>
+    <col min="15116" max="15116" width="6.140625" customWidth="1"/>
+    <col min="15117" max="15117" width="5.5703125" customWidth="1"/>
     <col min="15118" max="15120" width="7" bestFit="1" customWidth="1"/>
-    <col min="15121" max="15121" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="15122" max="15123" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="15124" max="15124" width="9.36328125" customWidth="1"/>
-    <col min="15125" max="15129" width="7.6328125" customWidth="1"/>
-    <col min="15130" max="15130" width="10.453125" customWidth="1"/>
-    <col min="15131" max="15131" width="8.90625" customWidth="1"/>
-    <col min="15132" max="15137" width="7.6328125" customWidth="1"/>
-    <col min="15311" max="15364" width="11.453125" customWidth="1"/>
-    <col min="15365" max="15365" width="9.453125" customWidth="1"/>
-    <col min="15366" max="15366" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="5.453125" customWidth="1"/>
-    <col min="15370" max="15370" width="7.453125" customWidth="1"/>
-    <col min="15371" max="15371" width="6.6328125" customWidth="1"/>
-    <col min="15372" max="15372" width="6.08984375" customWidth="1"/>
-    <col min="15373" max="15373" width="5.54296875" customWidth="1"/>
+    <col min="15121" max="15121" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15122" max="15123" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15124" max="15124" width="9.42578125" customWidth="1"/>
+    <col min="15125" max="15129" width="7.5703125" customWidth="1"/>
+    <col min="15130" max="15130" width="10.42578125" customWidth="1"/>
+    <col min="15131" max="15131" width="8.85546875" customWidth="1"/>
+    <col min="15132" max="15137" width="7.5703125" customWidth="1"/>
+    <col min="15311" max="15364" width="11.42578125" customWidth="1"/>
+    <col min="15365" max="15365" width="9.42578125" customWidth="1"/>
+    <col min="15366" max="15367" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="5.42578125" customWidth="1"/>
+    <col min="15370" max="15370" width="7.42578125" customWidth="1"/>
+    <col min="15371" max="15371" width="6.5703125" customWidth="1"/>
+    <col min="15372" max="15372" width="6.140625" customWidth="1"/>
+    <col min="15373" max="15373" width="5.5703125" customWidth="1"/>
     <col min="15374" max="15376" width="7" bestFit="1" customWidth="1"/>
-    <col min="15377" max="15377" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="15378" max="15379" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="15380" max="15380" width="9.36328125" customWidth="1"/>
-    <col min="15381" max="15385" width="7.6328125" customWidth="1"/>
-    <col min="15386" max="15386" width="10.453125" customWidth="1"/>
-    <col min="15387" max="15387" width="8.90625" customWidth="1"/>
-    <col min="15388" max="15393" width="7.6328125" customWidth="1"/>
-    <col min="15567" max="15620" width="11.453125" customWidth="1"/>
-    <col min="15621" max="15621" width="9.453125" customWidth="1"/>
-    <col min="15622" max="15622" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="5.453125" customWidth="1"/>
-    <col min="15626" max="15626" width="7.453125" customWidth="1"/>
-    <col min="15627" max="15627" width="6.6328125" customWidth="1"/>
-    <col min="15628" max="15628" width="6.08984375" customWidth="1"/>
-    <col min="15629" max="15629" width="5.54296875" customWidth="1"/>
+    <col min="15377" max="15377" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15378" max="15379" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15380" max="15380" width="9.42578125" customWidth="1"/>
+    <col min="15381" max="15385" width="7.5703125" customWidth="1"/>
+    <col min="15386" max="15386" width="10.42578125" customWidth="1"/>
+    <col min="15387" max="15387" width="8.85546875" customWidth="1"/>
+    <col min="15388" max="15393" width="7.5703125" customWidth="1"/>
+    <col min="15567" max="15620" width="11.42578125" customWidth="1"/>
+    <col min="15621" max="15621" width="9.42578125" customWidth="1"/>
+    <col min="15622" max="15623" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="5.42578125" customWidth="1"/>
+    <col min="15626" max="15626" width="7.42578125" customWidth="1"/>
+    <col min="15627" max="15627" width="6.5703125" customWidth="1"/>
+    <col min="15628" max="15628" width="6.140625" customWidth="1"/>
+    <col min="15629" max="15629" width="5.5703125" customWidth="1"/>
     <col min="15630" max="15632" width="7" bestFit="1" customWidth="1"/>
-    <col min="15633" max="15633" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="15634" max="15635" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="15636" max="15636" width="9.36328125" customWidth="1"/>
-    <col min="15637" max="15641" width="7.6328125" customWidth="1"/>
-    <col min="15642" max="15642" width="10.453125" customWidth="1"/>
-    <col min="15643" max="15643" width="8.90625" customWidth="1"/>
-    <col min="15644" max="15649" width="7.6328125" customWidth="1"/>
-    <col min="15823" max="15876" width="11.453125" customWidth="1"/>
-    <col min="15877" max="15877" width="9.453125" customWidth="1"/>
-    <col min="15878" max="15878" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="5.453125" customWidth="1"/>
-    <col min="15882" max="15882" width="7.453125" customWidth="1"/>
-    <col min="15883" max="15883" width="6.6328125" customWidth="1"/>
-    <col min="15884" max="15884" width="6.08984375" customWidth="1"/>
-    <col min="15885" max="15885" width="5.54296875" customWidth="1"/>
+    <col min="15633" max="15633" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15634" max="15635" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15636" max="15636" width="9.42578125" customWidth="1"/>
+    <col min="15637" max="15641" width="7.5703125" customWidth="1"/>
+    <col min="15642" max="15642" width="10.42578125" customWidth="1"/>
+    <col min="15643" max="15643" width="8.85546875" customWidth="1"/>
+    <col min="15644" max="15649" width="7.5703125" customWidth="1"/>
+    <col min="15823" max="15876" width="11.42578125" customWidth="1"/>
+    <col min="15877" max="15877" width="9.42578125" customWidth="1"/>
+    <col min="15878" max="15879" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="5.42578125" customWidth="1"/>
+    <col min="15882" max="15882" width="7.42578125" customWidth="1"/>
+    <col min="15883" max="15883" width="6.5703125" customWidth="1"/>
+    <col min="15884" max="15884" width="6.140625" customWidth="1"/>
+    <col min="15885" max="15885" width="5.5703125" customWidth="1"/>
     <col min="15886" max="15888" width="7" bestFit="1" customWidth="1"/>
-    <col min="15889" max="15889" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="15890" max="15891" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="15892" max="15892" width="9.36328125" customWidth="1"/>
-    <col min="15893" max="15897" width="7.6328125" customWidth="1"/>
-    <col min="15898" max="15898" width="10.453125" customWidth="1"/>
-    <col min="15899" max="15899" width="8.90625" customWidth="1"/>
-    <col min="15900" max="15905" width="7.6328125" customWidth="1"/>
-    <col min="16079" max="16132" width="11.453125" customWidth="1"/>
-    <col min="16133" max="16133" width="9.453125" customWidth="1"/>
-    <col min="16134" max="16134" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="5.453125" customWidth="1"/>
-    <col min="16138" max="16138" width="7.453125" customWidth="1"/>
-    <col min="16139" max="16139" width="6.6328125" customWidth="1"/>
-    <col min="16140" max="16140" width="6.08984375" customWidth="1"/>
-    <col min="16141" max="16141" width="5.54296875" customWidth="1"/>
+    <col min="15889" max="15889" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="15890" max="15891" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15892" max="15892" width="9.42578125" customWidth="1"/>
+    <col min="15893" max="15897" width="7.5703125" customWidth="1"/>
+    <col min="15898" max="15898" width="10.42578125" customWidth="1"/>
+    <col min="15899" max="15899" width="8.85546875" customWidth="1"/>
+    <col min="15900" max="15905" width="7.5703125" customWidth="1"/>
+    <col min="16079" max="16132" width="11.42578125" customWidth="1"/>
+    <col min="16133" max="16133" width="9.42578125" customWidth="1"/>
+    <col min="16134" max="16135" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="5.42578125" customWidth="1"/>
+    <col min="16138" max="16138" width="7.42578125" customWidth="1"/>
+    <col min="16139" max="16139" width="6.5703125" customWidth="1"/>
+    <col min="16140" max="16140" width="6.140625" customWidth="1"/>
+    <col min="16141" max="16141" width="5.5703125" customWidth="1"/>
     <col min="16142" max="16144" width="7" bestFit="1" customWidth="1"/>
-    <col min="16145" max="16145" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="16146" max="16147" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="16148" max="16148" width="9.36328125" customWidth="1"/>
-    <col min="16149" max="16153" width="7.6328125" customWidth="1"/>
-    <col min="16154" max="16154" width="10.453125" customWidth="1"/>
-    <col min="16155" max="16155" width="8.90625" customWidth="1"/>
-    <col min="16156" max="16161" width="7.6328125" customWidth="1"/>
-    <col min="16335" max="16384" width="11.453125" customWidth="1"/>
+    <col min="16145" max="16145" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16146" max="16147" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16148" max="16148" width="9.42578125" customWidth="1"/>
+    <col min="16149" max="16153" width="7.5703125" customWidth="1"/>
+    <col min="16154" max="16154" width="10.42578125" customWidth="1"/>
+    <col min="16155" max="16155" width="8.85546875" customWidth="1"/>
+    <col min="16156" max="16161" width="7.5703125" customWidth="1"/>
+    <col min="16335" max="16384" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>69</v>
       </c>
@@ -7571,7 +7508,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -7675,7 +7612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7779,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7883,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7987,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8091,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -8195,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -8299,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -8403,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -8507,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -8611,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -8715,7 +8652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -8819,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -8923,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -9027,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -9131,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -9235,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -9339,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -9443,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -9547,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -9651,7 +9588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -9755,7 +9692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -9859,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -9963,7 +9900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -10067,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -10171,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -10275,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -10379,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -10483,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -10587,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -10691,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -10795,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -10899,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -11003,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -11107,7 +11044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -11211,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -11315,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -11419,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -11523,7 +11460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -11627,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -11731,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -11835,7 +11772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -11939,7 +11876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -12043,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -12147,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -12251,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -12355,7 +12292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -12459,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -12563,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -12667,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -12771,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -12875,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -12979,7 +12916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -13083,7 +13020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -13187,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -13291,7 +13228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -13395,7 +13332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -13499,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -13603,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -13707,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -13811,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -13915,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -14019,7 +13956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -14123,7 +14060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -14227,7 +14164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -14331,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -14435,7 +14372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -14539,7 +14476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -14643,7 +14580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -14747,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -14851,7 +14788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -14955,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -15059,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -15163,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -15267,7 +15204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -15371,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -15475,7 +15412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -15579,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -15683,7 +15620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -15787,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -15891,7 +15828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -15995,7 +15932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -16099,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -16203,7 +16140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -16307,7 +16244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -16411,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -16515,7 +16452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -16619,7 +16556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -16723,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -16827,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -16931,7 +16868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -17035,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -17139,7 +17076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -17243,7 +17180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -17347,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -17451,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -17570,14 +17507,14 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" customWidth="1"/>
-    <col min="3" max="3" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -17588,7 +17525,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -17599,7 +17536,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -17610,7 +17547,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -17639,19 +17576,19 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="42.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>78</v>
       </c>
@@ -17683,7 +17620,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="44.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
         <v>405</v>
       </c>
@@ -17715,7 +17652,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="59" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A3" s="68" t="s">
         <v>406</v>
       </c>
@@ -17747,7 +17684,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="59" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A4" s="68" t="s">
         <v>407</v>
       </c>
@@ -17779,7 +17716,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="59" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="61.5" x14ac:dyDescent="0.35">
       <c r="A5" s="68" t="s">
         <v>408</v>
       </c>
@@ -17831,21 +17768,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6328125" customWidth="1"/>
-    <col min="10" max="10" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>78</v>
       </c>
@@ -17886,7 +17823,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>409</v>
       </c>
@@ -17917,7 +17854,7 @@
       </c>
       <c r="K2" s="45"/>
     </row>
-    <row r="3" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>413</v>
       </c>
@@ -17958,7 +17895,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>410</v>
       </c>
@@ -17991,7 +17928,7 @@
       <c r="L4" s="44"/>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>414</v>
       </c>
@@ -18032,7 +17969,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>415</v>
       </c>
@@ -18073,7 +18010,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>416</v>
       </c>
@@ -18114,7 +18051,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>431</v>
       </c>
@@ -18122,10 +18059,10 @@
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
     </row>
   </sheetData>
@@ -18153,18 +18090,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>78</v>
       </c>
@@ -18202,7 +18139,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>375</v>
       </c>
@@ -18228,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>376</v>
       </c>
@@ -18266,7 +18203,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>432</v>
       </c>
@@ -18292,19 +18229,19 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>78</v>
       </c>
@@ -18336,7 +18273,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>411</v>
       </c>
@@ -18360,7 +18297,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="163.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>412</v>
       </c>
@@ -18392,7 +18329,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>431</v>
       </c>
@@ -18400,7 +18337,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
     </row>
   </sheetData>
@@ -18420,9 +18357,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>223</v>
       </c>
@@ -18430,7 +18367,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -18438,7 +18375,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -18446,7 +18383,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -18460,15 +18397,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="bf3d09fe-6738-443d-9673-b7ff0d7dd09c" xsi:nil="true"/>
@@ -18479,9 +18407,18 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100622C72A1DD75CA4D87E39FE37B04C3D3" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="df2f41b8cf8911f1d6517ec81b542661">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6584b4ba-af75-4ac8-8379-7172592f8823" xmlns:ns3="a9e4a452-7199-439f-b4c2-3c6fe4528eb3" xmlns:ns4="bf3d09fe-6738-443d-9673-b7ff0d7dd09c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c9b8f8302b5d932af5dac8f68d1b6fe" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100622C72A1DD75CA4D87E39FE37B04C3D3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99b455209db282e8e6e2ab1198281278">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6584b4ba-af75-4ac8-8379-7172592f8823" xmlns:ns3="a9e4a452-7199-439f-b4c2-3c6fe4528eb3" xmlns:ns4="bf3d09fe-6738-443d-9673-b7ff0d7dd09c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e79ca979dda8c4f50da160955269f501" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6584b4ba-af75-4ac8-8379-7172592f8823"/>
     <xsd:import namespace="a9e4a452-7199-439f-b4c2-3c6fe4528eb3"/>
     <xsd:import namespace="bf3d09fe-6738-443d-9673-b7ff0d7dd09c"/>
@@ -18507,6 +18444,7 @@
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -18586,6 +18524,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -18734,14 +18677,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87EA80D3-49F4-411B-8D15-0F5A44EC82F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0809E8A-94F5-4669-8296-E1A8A89A2DCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -18759,22 +18694,14 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EB1774E-0978-44C9-9216-6FDCE2754131}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87EA80D3-49F4-411B-8D15-0F5A44EC82F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6584b4ba-af75-4ac8-8379-7172592f8823"/>
-    <ds:schemaRef ds:uri="a9e4a452-7199-439f-b4c2-3c6fe4528eb3"/>
-    <ds:schemaRef ds:uri="bf3d09fe-6738-443d-9673-b7ff0d7dd09c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E52DC97-D4DC-44D8-A5E3-89CDEFB8A85E}"/>
 </file>